--- a/Métriques discriminantes/Tableau métriques/Evolutions métriques/Par journée/2022_2023/Skill Corner/physical_top5.xlsx
+++ b/Métriques discriminantes/Tableau métriques/Evolutions métriques/Par journée/2022_2023/Skill Corner/physical_top5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO39"/>
+  <dimension ref="A1:AN39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,202 +441,197 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>total_distance_full_all</t>
+          <t>total_distance_per_Match</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>total_metersperminute_full_all</t>
+          <t>total_metersperminute_per_Match</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>running_distance_full_all</t>
+          <t>running_distance_per_Match</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>hsr_distance_full_all</t>
+          <t>hsr_distance_per_Match</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>hsr_count_full_all</t>
+          <t>hsr_count_per_Match</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>sprint_distance_full_all</t>
+          <t>sprint_distance_per_Match</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>sprint_count_full_all</t>
+          <t>sprint_count_per_Match</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>hi_distance_full_all</t>
+          <t>hi_distance_per_Match</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>hi_count_full_all</t>
+          <t>hi_count_per_Match</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>medaccel_count_full_all</t>
+          <t>medaccel_count_per_Match</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>highaccel_count_full_all</t>
+          <t>highaccel_count_per_Match</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>meddecel_count_full_all</t>
+          <t>meddecel_count_per_Match</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>highdecel_count_full_all</t>
+          <t>highdecel_count_per_Match</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>psv99</t>
+          <t>total_distance_per30tip</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>total_distance_full_tip</t>
+          <t>total_metersperminute_per30tip</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>total_metersperminute_full_tip</t>
+          <t>running_distance_per30tip</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>running_distance_full_tip</t>
+          <t>hsr_distance_per30tip</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>hsr_distance_full_tip</t>
+          <t>hsr_count_per30tip</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>hsr_count_full_tip</t>
+          <t>sprint_distance_per30tip</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>sprint_distance_full_tip</t>
+          <t>sprint_count_per30tip</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>sprint_count_full_tip</t>
+          <t>hi_distance_per30tip</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>hi_distance_full_tip</t>
+          <t>hi_count_per30tip</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>hi_count_full_tip</t>
+          <t>medaccel_count_per30tip</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>medaccel_count_full_tip</t>
+          <t>highaccel_count_per30tip</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>highaccel_count_full_tip</t>
+          <t>meddecel_count_per30tip</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>meddecel_count_full_tip</t>
+          <t>highdecel_count_per30tip</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>highdecel_count_full_tip</t>
+          <t>total_distance_per30otip</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>total_distance_full_otip</t>
+          <t>total_metersperminute_per30otip</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>total_metersperminute_full_otip</t>
+          <t>running_distance_per30otip</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>running_distance_full_otip</t>
+          <t>hsr_distance_per30otip</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>hsr_distance_full_otip</t>
+          <t>hsr_count_per30otip</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>hsr_count_full_otip</t>
+          <t>sprint_distance_per30otip</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>sprint_distance_full_otip</t>
+          <t>sprint_count_per30otip</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>sprint_count_full_otip</t>
+          <t>hi_distance_per30otip</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>hi_distance_full_otip</t>
+          <t>hi_count_per30otip</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>hi_count_full_otip</t>
+          <t>medaccel_count_per30otip</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>medaccel_count_full_otip</t>
+          <t>highaccel_count_per30otip</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>highaccel_count_full_otip</t>
+          <t>meddecel_count_per30otip</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>meddecel_count_full_otip</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>highdecel_count_full_otip</t>
+          <t>highdecel_count_per30otip</t>
         </is>
       </c>
     </row>
@@ -684,85 +679,82 @@
         <v>147.0839541519704</v>
       </c>
       <c r="O2" t="n">
-        <v>356.6764327372515</v>
+        <v>51146.66877506007</v>
       </c>
       <c r="P2" t="n">
-        <v>33552.97300915645</v>
+        <v>1704.892763400939</v>
       </c>
       <c r="Q2" t="n">
-        <v>1704.892763400939</v>
+        <v>8614.737933076951</v>
       </c>
       <c r="R2" t="n">
-        <v>5196.078849535776</v>
+        <v>3371.153656608448</v>
       </c>
       <c r="S2" t="n">
-        <v>1992.588488492032</v>
+        <v>304.6047684789893</v>
       </c>
       <c r="T2" t="n">
-        <v>190.2265567783828</v>
+        <v>1243.511037252664</v>
       </c>
       <c r="U2" t="n">
-        <v>770.5059341342218</v>
+        <v>53.67240225231802</v>
       </c>
       <c r="V2" t="n">
-        <v>34.39683502800835</v>
+        <v>4614.655553256153</v>
       </c>
       <c r="W2" t="n">
-        <v>2763.094422626254</v>
+        <v>358.280838577706</v>
       </c>
       <c r="X2" t="n">
-        <v>224.6233918063912</v>
+        <v>557.6233969790495</v>
       </c>
       <c r="Y2" t="n">
-        <v>361.1230194600779</v>
+        <v>35.34209237558795</v>
       </c>
       <c r="Z2" t="n">
-        <v>20.38692788753885</v>
+        <v>374.2023280527493</v>
       </c>
       <c r="AA2" t="n">
-        <v>250.800713619013</v>
+        <v>59.1671943460035</v>
       </c>
       <c r="AB2" t="n">
-        <v>35.37129014205036</v>
+        <v>51835.37536329839</v>
       </c>
       <c r="AC2" t="n">
-        <v>30795.0567520343</v>
+        <v>1727.847704693947</v>
       </c>
       <c r="AD2" t="n">
-        <v>1727.847704693947</v>
+        <v>10074.67896784424</v>
       </c>
       <c r="AE2" t="n">
-        <v>5880.564630423552</v>
+        <v>3956.791724509401</v>
       </c>
       <c r="AF2" t="n">
-        <v>2344.940168893521</v>
+        <v>366.1708247978302</v>
       </c>
       <c r="AG2" t="n">
-        <v>215.1125628990913</v>
+        <v>1157.393799396979</v>
       </c>
       <c r="AH2" t="n">
-        <v>660.3427599994127</v>
+        <v>56.96855625264277</v>
       </c>
       <c r="AI2" t="n">
-        <v>34.14114434639329</v>
+        <v>5114.195004162165</v>
       </c>
       <c r="AJ2" t="n">
-        <v>3005.282928892933</v>
+        <v>423.135799637982</v>
       </c>
       <c r="AK2" t="n">
-        <v>249.2537072454846</v>
+        <v>600.6702303351665</v>
       </c>
       <c r="AL2" t="n">
-        <v>355.024488571362</v>
+        <v>38.99151196133305</v>
       </c>
       <c r="AM2" t="n">
-        <v>21.70031922940389</v>
+        <v>428.2541614888178</v>
       </c>
       <c r="AN2" t="n">
-        <v>254.1193829236386</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>44.49193337968067</v>
+        <v>79.15138756326314</v>
       </c>
     </row>
     <row r="3">
@@ -809,85 +801,82 @@
         <v>156.4044073966705</v>
       </c>
       <c r="O3" t="n">
-        <v>363.1898716098132</v>
+        <v>52915.67978901802</v>
       </c>
       <c r="P3" t="n">
-        <v>36756.55301858509</v>
+        <v>1763.852553577336</v>
       </c>
       <c r="Q3" t="n">
-        <v>1763.852553577336</v>
+        <v>8836.617110971303</v>
       </c>
       <c r="R3" t="n">
-        <v>5695.197655922132</v>
+        <v>3469.649922099723</v>
       </c>
       <c r="S3" t="n">
-        <v>2220.937810683492</v>
+        <v>328.2292210460432</v>
       </c>
       <c r="T3" t="n">
-        <v>208.950343160462</v>
+        <v>1493.077402764203</v>
       </c>
       <c r="U3" t="n">
-        <v>908.7362142050431</v>
+        <v>66.19208462827503</v>
       </c>
       <c r="V3" t="n">
-        <v>42.36300354615962</v>
+        <v>4962.721728778817</v>
       </c>
       <c r="W3" t="n">
-        <v>3129.674024888535</v>
+        <v>394.4229121864058</v>
       </c>
       <c r="X3" t="n">
-        <v>251.3133467066215</v>
+        <v>553.8940097447108</v>
       </c>
       <c r="Y3" t="n">
-        <v>373.9222082483791</v>
+        <v>40.09623987869007</v>
       </c>
       <c r="Z3" t="n">
-        <v>24.2191029734225</v>
+        <v>385.3721361030779</v>
       </c>
       <c r="AA3" t="n">
-        <v>266.5104511914197</v>
+        <v>61.65015090492795</v>
       </c>
       <c r="AB3" t="n">
-        <v>42.44151263412871</v>
+        <v>53925.09428949431</v>
       </c>
       <c r="AC3" t="n">
-        <v>33483.70341134442</v>
+        <v>1797.510648128215</v>
       </c>
       <c r="AD3" t="n">
-        <v>1797.510648128215</v>
+        <v>10734.47740083269</v>
       </c>
       <c r="AE3" t="n">
-        <v>6570.620509616844</v>
+        <v>4283.492363819155</v>
       </c>
       <c r="AF3" t="n">
-        <v>2530.007410280635</v>
+        <v>394.7748715293489</v>
       </c>
       <c r="AG3" t="n">
-        <v>237.0844727744844</v>
+        <v>1424.831361546679</v>
       </c>
       <c r="AH3" t="n">
-        <v>810.3954140821169</v>
+        <v>64.77576657726674</v>
       </c>
       <c r="AI3" t="n">
-        <v>39.14576738382089</v>
+        <v>5708.319991557606</v>
       </c>
       <c r="AJ3" t="n">
-        <v>3340.402824362752</v>
+        <v>459.5602369495009</v>
       </c>
       <c r="AK3" t="n">
-        <v>276.2302401583053</v>
+        <v>599.8138039207714</v>
       </c>
       <c r="AL3" t="n">
-        <v>376.1935938670409</v>
+        <v>33.64104904747198</v>
       </c>
       <c r="AM3" t="n">
-        <v>20.19666807422962</v>
+        <v>398.2628811399572</v>
       </c>
       <c r="AN3" t="n">
-        <v>259.0417390048395</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>47.08068658756152</v>
+        <v>78.55407623780721</v>
       </c>
     </row>
     <row r="4">
@@ -934,85 +923,82 @@
         <v>142.5622357957431</v>
       </c>
       <c r="O4" t="n">
-        <v>369.5046030305069</v>
+        <v>48036.38667915005</v>
       </c>
       <c r="P4" t="n">
-        <v>33823.29575704366</v>
+        <v>1601.207936107932</v>
       </c>
       <c r="Q4" t="n">
-        <v>1601.207936107932</v>
+        <v>7544.163991012016</v>
       </c>
       <c r="R4" t="n">
-        <v>4941.931151936003</v>
+        <v>3103.649675339652</v>
       </c>
       <c r="S4" t="n">
-        <v>1969.199518989932</v>
+        <v>286.6729654577412</v>
       </c>
       <c r="T4" t="n">
-        <v>188.5395335327794</v>
+        <v>1124.66198905401</v>
       </c>
       <c r="U4" t="n">
-        <v>776.1196345344331</v>
+        <v>51.66813046006055</v>
       </c>
       <c r="V4" t="n">
-        <v>37.1327787209779</v>
+        <v>4228.315280035815</v>
       </c>
       <c r="W4" t="n">
-        <v>2745.319153524365</v>
+        <v>338.3465849373023</v>
       </c>
       <c r="X4" t="n">
-        <v>225.6723122537573</v>
+        <v>507.5834288857179</v>
       </c>
       <c r="Y4" t="n">
-        <v>343.5915029477122</v>
+        <v>27.07384581693353</v>
       </c>
       <c r="Z4" t="n">
-        <v>16.66022878781647</v>
+        <v>356.6408888758062</v>
       </c>
       <c r="AA4" t="n">
-        <v>246.1468794568084</v>
+        <v>51.8374655304732</v>
       </c>
       <c r="AB4" t="n">
-        <v>35.26727422069358</v>
+        <v>54159.80881839892</v>
       </c>
       <c r="AC4" t="n">
-        <v>36219.56816629028</v>
+        <v>1805.33139463648</v>
       </c>
       <c r="AD4" t="n">
-        <v>1805.33139463648</v>
+        <v>10245.92480069672</v>
       </c>
       <c r="AE4" t="n">
-        <v>6548.368746391274</v>
+        <v>4040.548741253909</v>
       </c>
       <c r="AF4" t="n">
-        <v>2477.867213462704</v>
+        <v>380.3574648317523</v>
       </c>
       <c r="AG4" t="n">
-        <v>238.8132868344355</v>
+        <v>1110.549773057754</v>
       </c>
       <c r="AH4" t="n">
-        <v>672.9874542347883</v>
+        <v>61.46693308002885</v>
       </c>
       <c r="AI4" t="n">
-        <v>36.15389414460252</v>
+        <v>5151.104130722422</v>
       </c>
       <c r="AJ4" t="n">
-        <v>3150.854667697492</v>
+        <v>441.8297540941437</v>
       </c>
       <c r="AK4" t="n">
-        <v>274.967180979038</v>
+        <v>609.4601553758104</v>
       </c>
       <c r="AL4" t="n">
-        <v>416.2431232853857</v>
+        <v>38.21624622500498</v>
       </c>
       <c r="AM4" t="n">
-        <v>20.73396956598369</v>
+        <v>450.4232099725239</v>
       </c>
       <c r="AN4" t="n">
-        <v>301.3758479567608</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>47.45889728346474</v>
+        <v>75.34007384606693</v>
       </c>
     </row>
     <row r="5">
@@ -1059,85 +1045,82 @@
         <v>157.2568299880551</v>
       </c>
       <c r="O5" t="n">
-        <v>361.7724771805431</v>
+        <v>53376.27155417295</v>
       </c>
       <c r="P5" t="n">
-        <v>32691.58412222814</v>
+        <v>1779.214922007573</v>
       </c>
       <c r="Q5" t="n">
-        <v>1779.214922007573</v>
+        <v>8393.503968122537</v>
       </c>
       <c r="R5" t="n">
-        <v>4876.797234919473</v>
+        <v>3482.674793645765</v>
       </c>
       <c r="S5" t="n">
-        <v>1927.736810533561</v>
+        <v>328.6732051118962</v>
       </c>
       <c r="T5" t="n">
-        <v>180.7901884738677</v>
+        <v>1469.105046073776</v>
       </c>
       <c r="U5" t="n">
-        <v>800.958197079575</v>
+        <v>74.22881637585914</v>
       </c>
       <c r="V5" t="n">
-        <v>39.19481822350072</v>
+        <v>4951.782370567445</v>
       </c>
       <c r="W5" t="n">
-        <v>2728.695007613136</v>
+        <v>402.9115996965564</v>
       </c>
       <c r="X5" t="n">
-        <v>219.9850066973685</v>
+        <v>581.2912675955774</v>
       </c>
       <c r="Y5" t="n">
-        <v>338.3774877509929</v>
+        <v>43.86607580328736</v>
       </c>
       <c r="Z5" t="n">
-        <v>21.3038520558603</v>
+        <v>381.901791992605</v>
       </c>
       <c r="AA5" t="n">
-        <v>232.2554488263457</v>
+        <v>81.71308560131953</v>
       </c>
       <c r="AB5" t="n">
-        <v>43.13520294522754</v>
+        <v>57287.91753561478</v>
       </c>
       <c r="AC5" t="n">
-        <v>36254.81575913612</v>
+        <v>1909.58776143438</v>
       </c>
       <c r="AD5" t="n">
-        <v>1909.58776143438</v>
+        <v>10802.56522524225</v>
       </c>
       <c r="AE5" t="n">
-        <v>6573.848773618716</v>
+        <v>4155.367265987441</v>
       </c>
       <c r="AF5" t="n">
-        <v>2454.057259255123</v>
+        <v>377.9260985260511</v>
       </c>
       <c r="AG5" t="n">
-        <v>233.3644785627873</v>
+        <v>867.0736318193732</v>
       </c>
       <c r="AH5" t="n">
-        <v>561.4367262095988</v>
+        <v>50.82462184288865</v>
       </c>
       <c r="AI5" t="n">
-        <v>34.15012702862515</v>
+        <v>5022.438378018876</v>
       </c>
       <c r="AJ5" t="n">
-        <v>3015.493985464721</v>
+        <v>428.7602448034665</v>
       </c>
       <c r="AK5" t="n">
-        <v>267.5146055914124</v>
+        <v>643.1750302468258</v>
       </c>
       <c r="AL5" t="n">
-        <v>412.8543761044018</v>
+        <v>37.56152728960834</v>
       </c>
       <c r="AM5" t="n">
-        <v>22.8913867315059</v>
+        <v>449.118958936659</v>
       </c>
       <c r="AN5" t="n">
-        <v>291.2113424428554</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>51.36266097143105</v>
+        <v>82.51116683812478</v>
       </c>
     </row>
     <row r="6">
@@ -1184,85 +1167,82 @@
         <v>158.4400355019992</v>
       </c>
       <c r="O6" t="n">
-        <v>372.4936227225238</v>
+        <v>55308.67971045866</v>
       </c>
       <c r="P6" t="n">
-        <v>39257.37293442069</v>
+        <v>1843.615142770568</v>
       </c>
       <c r="Q6" t="n">
-        <v>1843.615142770568</v>
+        <v>8577.296781523448</v>
       </c>
       <c r="R6" t="n">
-        <v>5692.645619530677</v>
+        <v>3419.746140695785</v>
       </c>
       <c r="S6" t="n">
-        <v>2149.986943913399</v>
+        <v>314.3461591033543</v>
       </c>
       <c r="T6" t="n">
-        <v>209.9119321529604</v>
+        <v>1041.07729224514</v>
       </c>
       <c r="U6" t="n">
-        <v>689.3854015099389</v>
+        <v>54.52945693561973</v>
       </c>
       <c r="V6" t="n">
-        <v>37.02489026292663</v>
+        <v>4460.819706817891</v>
       </c>
       <c r="W6" t="n">
-        <v>2839.372345423337</v>
+        <v>368.8831309201803</v>
       </c>
       <c r="X6" t="n">
-        <v>246.9368224158871</v>
+        <v>557.7261405869692</v>
       </c>
       <c r="Y6" t="n">
-        <v>388.7348356011312</v>
+        <v>42.22851364391212</v>
       </c>
       <c r="Z6" t="n">
-        <v>24.71143897831153</v>
+        <v>388.9724595735663</v>
       </c>
       <c r="AA6" t="n">
-        <v>284.2370316126746</v>
+        <v>61.38184243648126</v>
       </c>
       <c r="AB6" t="n">
-        <v>39.49311348602836</v>
+        <v>55900.82229983011</v>
       </c>
       <c r="AC6" t="n">
-        <v>33309.28111251532</v>
+        <v>1863.355100921498</v>
       </c>
       <c r="AD6" t="n">
-        <v>1863.355100921498</v>
+        <v>10228.91751298279</v>
       </c>
       <c r="AE6" t="n">
-        <v>5944.980748259816</v>
+        <v>4299.512434821303</v>
       </c>
       <c r="AF6" t="n">
-        <v>2349.018492845597</v>
+        <v>388.9085865902008</v>
       </c>
       <c r="AG6" t="n">
-        <v>218.672136278606</v>
+        <v>1133.247272676064</v>
       </c>
       <c r="AH6" t="n">
-        <v>590.0899626299181</v>
+        <v>59.93453766959367</v>
       </c>
       <c r="AI6" t="n">
-        <v>31.77420725616499</v>
+        <v>5432.755981374333</v>
       </c>
       <c r="AJ6" t="n">
-        <v>2939.108455475515</v>
+        <v>448.8544842236835</v>
       </c>
       <c r="AK6" t="n">
-        <v>250.446343534771</v>
+        <v>637.8096352189793</v>
       </c>
       <c r="AL6" t="n">
-        <v>381.2759250551446</v>
+        <v>29.60607601686207</v>
       </c>
       <c r="AM6" t="n">
-        <v>17.21613257292706</v>
+        <v>437.7405410227835</v>
       </c>
       <c r="AN6" t="n">
-        <v>263.1755718002364</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>48.99568339859467</v>
+        <v>84.98590899836678</v>
       </c>
     </row>
     <row r="7">
@@ -1309,85 +1289,82 @@
         <v>164.8594573391939</v>
       </c>
       <c r="O7" t="n">
-        <v>397.6052674950271</v>
+        <v>57663.20548935012</v>
       </c>
       <c r="P7" t="n">
-        <v>38434.66831252282</v>
+        <v>1922.107940888075</v>
       </c>
       <c r="Q7" t="n">
-        <v>1922.107940888075</v>
+        <v>9347.880480758564</v>
       </c>
       <c r="R7" t="n">
-        <v>5729.925509425497</v>
+        <v>3519.267625697827</v>
       </c>
       <c r="S7" t="n">
-        <v>2063.673527667017</v>
+        <v>341.1101105202367</v>
       </c>
       <c r="T7" t="n">
-        <v>201.7076805335409</v>
+        <v>1316.792757648234</v>
       </c>
       <c r="U7" t="n">
-        <v>691.9330974437019</v>
+        <v>59.98012799250235</v>
       </c>
       <c r="V7" t="n">
-        <v>33.93966886338079</v>
+        <v>4836.068186478524</v>
       </c>
       <c r="W7" t="n">
-        <v>2755.606625110719</v>
+        <v>401.0844188374585</v>
       </c>
       <c r="X7" t="n">
-        <v>235.6473493969217</v>
+        <v>605.8134277374522</v>
       </c>
       <c r="Y7" t="n">
-        <v>388.0096413349048</v>
+        <v>34.7813789946638</v>
       </c>
       <c r="Z7" t="n">
-        <v>21.0358351005767</v>
+        <v>431.4330801184025</v>
       </c>
       <c r="AA7" t="n">
-        <v>287.7405448126528</v>
+        <v>66.67505700018054</v>
       </c>
       <c r="AB7" t="n">
-        <v>42.60086244525506</v>
+        <v>62107.25780970104</v>
       </c>
       <c r="AC7" t="n">
-        <v>33732.62704801097</v>
+        <v>2070.243946525382</v>
       </c>
       <c r="AD7" t="n">
-        <v>2070.243946525382</v>
+        <v>11422.0835362284</v>
       </c>
       <c r="AE7" t="n">
-        <v>5986.732749217353</v>
+        <v>4317.086378497581</v>
       </c>
       <c r="AF7" t="n">
-        <v>2341.57580128765</v>
+        <v>427.0620706277728</v>
       </c>
       <c r="AG7" t="n">
-        <v>230.3312423235218</v>
+        <v>1463.765409885302</v>
       </c>
       <c r="AH7" t="n">
-        <v>745.9973613346756</v>
+        <v>61.95988085736204</v>
       </c>
       <c r="AI7" t="n">
-        <v>32.45708619196465</v>
+        <v>5780.859550716686</v>
       </c>
       <c r="AJ7" t="n">
-        <v>3087.573162622326</v>
+        <v>489.0046722796883</v>
       </c>
       <c r="AK7" t="n">
-        <v>262.7883285154865</v>
+        <v>727.0407382068522</v>
       </c>
       <c r="AL7" t="n">
-        <v>404.3243744442095</v>
+        <v>39.99848078785565</v>
       </c>
       <c r="AM7" t="n">
-        <v>20.52158599715995</v>
+        <v>532.395131177745</v>
       </c>
       <c r="AN7" t="n">
-        <v>289.5515744493094</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>53.69383937472551</v>
+        <v>100.0352314873813</v>
       </c>
     </row>
     <row r="8">
@@ -1434,85 +1411,82 @@
         <v>154.7431913638316</v>
       </c>
       <c r="O8" t="n">
-        <v>370.415314047708</v>
+        <v>54156.5335380597</v>
       </c>
       <c r="P8" t="n">
-        <v>33406.99199267024</v>
+        <v>1805.22074802604</v>
       </c>
       <c r="Q8" t="n">
-        <v>1805.22074802604</v>
+        <v>9235.975227808942</v>
       </c>
       <c r="R8" t="n">
-        <v>5303.301302315327</v>
+        <v>3906.826100981371</v>
       </c>
       <c r="S8" t="n">
-        <v>2146.669731900239</v>
+        <v>376.0512266757626</v>
       </c>
       <c r="T8" t="n">
-        <v>215.5222990837833</v>
+        <v>1556.797257371955</v>
       </c>
       <c r="U8" t="n">
-        <v>910.7704183403214</v>
+        <v>81.06331272751966</v>
       </c>
       <c r="V8" t="n">
-        <v>48.10884973979</v>
+        <v>5463.61594172597</v>
       </c>
       <c r="W8" t="n">
-        <v>3057.44015024056</v>
+        <v>457.1109126123982</v>
       </c>
       <c r="X8" t="n">
-        <v>263.6311488235733</v>
+        <v>548.2845331535665</v>
       </c>
       <c r="Y8" t="n">
-        <v>330.8153455800401</v>
+        <v>31.3504281101824</v>
       </c>
       <c r="Z8" t="n">
-        <v>18.52141603682844</v>
+        <v>383.5304338780487</v>
       </c>
       <c r="AA8" t="n">
-        <v>234.9002682208549</v>
+        <v>73.28790927766734</v>
       </c>
       <c r="AB8" t="n">
-        <v>38.86139679636592</v>
+        <v>58278.60907078806</v>
       </c>
       <c r="AC8" t="n">
-        <v>34800.06914979477</v>
+        <v>1942.617209225755</v>
       </c>
       <c r="AD8" t="n">
-        <v>1942.617209225755</v>
+        <v>11732.91411279885</v>
       </c>
       <c r="AE8" t="n">
-        <v>6586.93989487134</v>
+        <v>4478.339852262616</v>
       </c>
       <c r="AF8" t="n">
-        <v>2557.147437717732</v>
+        <v>416.1176978224745</v>
       </c>
       <c r="AG8" t="n">
-        <v>246.1970538406194</v>
+        <v>1093.648731161637</v>
       </c>
       <c r="AH8" t="n">
-        <v>643.3822257431027</v>
+        <v>60.59376449237568</v>
       </c>
       <c r="AI8" t="n">
-        <v>36.24906323697378</v>
+        <v>5571.997748433545</v>
       </c>
       <c r="AJ8" t="n">
-        <v>3200.529663460834</v>
+        <v>476.7023024250578</v>
       </c>
       <c r="AK8" t="n">
-        <v>282.4461170775932</v>
+        <v>660.4974010838187</v>
       </c>
       <c r="AL8" t="n">
-        <v>406.5738357570162</v>
+        <v>34.47698091893198</v>
       </c>
       <c r="AM8" t="n">
-        <v>19.07266739956631</v>
+        <v>484.7850074542424</v>
       </c>
       <c r="AN8" t="n">
-        <v>289.9226523931338</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>53.88377253237303</v>
+        <v>93.22219664831546</v>
       </c>
     </row>
     <row r="9">
@@ -1559,85 +1533,82 @@
         <v>154.6059070021392</v>
       </c>
       <c r="O9" t="n">
-        <v>386.4767415951645</v>
+        <v>57137.203650745</v>
       </c>
       <c r="P9" t="n">
-        <v>33847.75791494212</v>
+        <v>1904.578958773417</v>
       </c>
       <c r="Q9" t="n">
-        <v>1904.578958773417</v>
+        <v>9546.60688381557</v>
       </c>
       <c r="R9" t="n">
-        <v>5153.932897754392</v>
+        <v>3829.288455447226</v>
       </c>
       <c r="S9" t="n">
-        <v>1955.796814443093</v>
+        <v>350.8989050704676</v>
       </c>
       <c r="T9" t="n">
-        <v>188.9817499187267</v>
+        <v>1423.424136199735</v>
       </c>
       <c r="U9" t="n">
-        <v>752.2890114660406</v>
+        <v>64.09558952528027</v>
       </c>
       <c r="V9" t="n">
-        <v>36.25262630129279</v>
+        <v>5252.726734262323</v>
       </c>
       <c r="W9" t="n">
-        <v>2708.085825909134</v>
+        <v>414.9992707981927</v>
       </c>
       <c r="X9" t="n">
-        <v>225.2343762200195</v>
+        <v>564.9791818464643</v>
       </c>
       <c r="Y9" t="n">
-        <v>331.7760880718459</v>
+        <v>32.81199061937818</v>
       </c>
       <c r="Z9" t="n">
-        <v>19.09654779188202</v>
+        <v>351.294777635986</v>
       </c>
       <c r="AA9" t="n">
-        <v>221.4321986363395</v>
+        <v>65.94422296292802</v>
       </c>
       <c r="AB9" t="n">
-        <v>37.70451040240883</v>
+        <v>58999.37904306989</v>
       </c>
       <c r="AC9" t="n">
-        <v>35978.33715403167</v>
+        <v>1966.643173399142</v>
       </c>
       <c r="AD9" t="n">
-        <v>1966.643173399142</v>
+        <v>11556.19497741245</v>
       </c>
       <c r="AE9" t="n">
-        <v>6685.119269945291</v>
+        <v>4487.992260433126</v>
       </c>
       <c r="AF9" t="n">
-        <v>2598.927117526241</v>
+        <v>410.7772143270119</v>
       </c>
       <c r="AG9" t="n">
-        <v>238.4037635425809</v>
+        <v>1124.139247322473</v>
       </c>
       <c r="AH9" t="n">
-        <v>655.7944060449476</v>
+        <v>56.57573544848109</v>
       </c>
       <c r="AI9" t="n">
-        <v>33.92985696191278</v>
+        <v>5612.126895933581</v>
       </c>
       <c r="AJ9" t="n">
-        <v>3254.721523571188</v>
+        <v>467.3482918154286</v>
       </c>
       <c r="AK9" t="n">
-        <v>272.3336205044937</v>
+        <v>635.7661149417321</v>
       </c>
       <c r="AL9" t="n">
-        <v>395.2364922640189</v>
+        <v>34.0333529758593</v>
       </c>
       <c r="AM9" t="n">
-        <v>20.7455145350515</v>
+        <v>478.2919272756732</v>
       </c>
       <c r="AN9" t="n">
-        <v>291.5371973990053</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>47.61949150122337</v>
+        <v>81.16631116712287</v>
       </c>
     </row>
     <row r="10">
@@ -1684,85 +1655,82 @@
         <v>145.0287040997059</v>
       </c>
       <c r="O10" t="n">
-        <v>372.8898441439733</v>
+        <v>56627.15460098366</v>
       </c>
       <c r="P10" t="n">
-        <v>36779.90593320783</v>
+        <v>1887.572850287986</v>
       </c>
       <c r="Q10" t="n">
-        <v>1887.572850287986</v>
+        <v>9880.157467986826</v>
       </c>
       <c r="R10" t="n">
-        <v>6060.887328889063</v>
+        <v>3977.910923960089</v>
       </c>
       <c r="S10" t="n">
-        <v>2358.279526991178</v>
+        <v>355.7088368523244</v>
       </c>
       <c r="T10" t="n">
-        <v>216.8964393625047</v>
+        <v>1323.764262045676</v>
       </c>
       <c r="U10" t="n">
-        <v>786.3871113934216</v>
+        <v>59.82795089570028</v>
       </c>
       <c r="V10" t="n">
-        <v>37.50004896928557</v>
+        <v>5301.654512961022</v>
       </c>
       <c r="W10" t="n">
-        <v>3144.666638384599</v>
+        <v>415.534885240702</v>
       </c>
       <c r="X10" t="n">
-        <v>254.3964883317903</v>
+        <v>574.3117040002778</v>
       </c>
       <c r="Y10" t="n">
-        <v>372.296514209211</v>
+        <v>32.93079424699128</v>
       </c>
       <c r="Z10" t="n">
-        <v>21.26818423346018</v>
+        <v>403.0561226411745</v>
       </c>
       <c r="AA10" t="n">
-        <v>266.0047825650734</v>
+        <v>65.89471813615131</v>
       </c>
       <c r="AB10" t="n">
-        <v>40.64329300700174</v>
+        <v>56623.03439692021</v>
       </c>
       <c r="AC10" t="n">
-        <v>33617.44638915568</v>
+        <v>1887.437118216185</v>
       </c>
       <c r="AD10" t="n">
-        <v>1887.437118216185</v>
+        <v>11277.61421614944</v>
       </c>
       <c r="AE10" t="n">
-        <v>6573.291470882186</v>
+        <v>4206.962675206385</v>
       </c>
       <c r="AF10" t="n">
-        <v>2390.063676500854</v>
+        <v>379.9145366317561</v>
       </c>
       <c r="AG10" t="n">
-        <v>215.3022891229054</v>
+        <v>1080.188104347436</v>
       </c>
       <c r="AH10" t="n">
-        <v>584.3062969189638</v>
+        <v>57.53829570628189</v>
       </c>
       <c r="AI10" t="n">
-        <v>30.90870856718452</v>
+        <v>5287.146723045555</v>
       </c>
       <c r="AJ10" t="n">
-        <v>2974.369973419818</v>
+        <v>437.4585758904488</v>
       </c>
       <c r="AK10" t="n">
-        <v>246.2109976900899</v>
+        <v>660.6634037650197</v>
       </c>
       <c r="AL10" t="n">
-        <v>377.0685050085184</v>
+        <v>33.96136926516721</v>
       </c>
       <c r="AM10" t="n">
-        <v>18.40039379419322</v>
+        <v>434.5116394233432</v>
       </c>
       <c r="AN10" t="n">
-        <v>265.4788542953653</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>44.86079565042647</v>
+        <v>75.81343059004512</v>
       </c>
     </row>
     <row r="11">
@@ -1809,85 +1777,82 @@
         <v>154.0928671299351</v>
       </c>
       <c r="O11" t="n">
-        <v>371.3108009232428</v>
+        <v>50313.34582736475</v>
       </c>
       <c r="P11" t="n">
-        <v>36785.53053955007</v>
+        <v>1677.110933653186</v>
       </c>
       <c r="Q11" t="n">
-        <v>1677.110933653186</v>
+        <v>8161.356435298256</v>
       </c>
       <c r="R11" t="n">
-        <v>5786.366668520228</v>
+        <v>3083.901558253311</v>
       </c>
       <c r="S11" t="n">
-        <v>2057.543716197111</v>
+        <v>295.4560814294923</v>
       </c>
       <c r="T11" t="n">
-        <v>206.8059981968512</v>
+        <v>1073.487593333973</v>
       </c>
       <c r="U11" t="n">
-        <v>735.7442224376407</v>
+        <v>52.6369560759487</v>
       </c>
       <c r="V11" t="n">
-        <v>36.82602662240707</v>
+        <v>4157.3966303636</v>
       </c>
       <c r="W11" t="n">
-        <v>2793.287938634751</v>
+        <v>348.0931806727081</v>
       </c>
       <c r="X11" t="n">
-        <v>243.6320248192583</v>
+        <v>515.2242958852476</v>
       </c>
       <c r="Y11" t="n">
-        <v>366.5791019856733</v>
+        <v>29.25053541607805</v>
       </c>
       <c r="Z11" t="n">
-        <v>21.63116762418819</v>
+        <v>367.82292670435</v>
       </c>
       <c r="AA11" t="n">
-        <v>270.6719376674819</v>
+        <v>56.12162802679808</v>
       </c>
       <c r="AB11" t="n">
-        <v>39.40522866130024</v>
+        <v>57282.48600460498</v>
       </c>
       <c r="AC11" t="n">
-        <v>37737.99721123084</v>
+        <v>1909.417793535269</v>
       </c>
       <c r="AD11" t="n">
-        <v>1909.417793535269</v>
+        <v>11243.54096443158</v>
       </c>
       <c r="AE11" t="n">
-        <v>7247.818364045832</v>
+        <v>4071.47719477704</v>
       </c>
       <c r="AF11" t="n">
-        <v>2577.861471218538</v>
+        <v>403.814431459447</v>
       </c>
       <c r="AG11" t="n">
-        <v>252.4836051454629</v>
+        <v>1156.456044309047</v>
       </c>
       <c r="AH11" t="n">
-        <v>701.0632320080331</v>
+        <v>59.55003960062312</v>
       </c>
       <c r="AI11" t="n">
-        <v>37.49313406183397</v>
+        <v>5227.933114744758</v>
       </c>
       <c r="AJ11" t="n">
-        <v>3278.924703226572</v>
+        <v>463.3645289711803</v>
       </c>
       <c r="AK11" t="n">
-        <v>289.9767392072969</v>
+        <v>646.5165394746806</v>
       </c>
       <c r="AL11" t="n">
-        <v>433.5208961972126</v>
+        <v>29.74175017685154</v>
       </c>
       <c r="AM11" t="n">
-        <v>20.76421566234736</v>
+        <v>449.9388832344882</v>
       </c>
       <c r="AN11" t="n">
-        <v>314.291215775093</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>53.49742346953821</v>
+        <v>79.74968578726863</v>
       </c>
     </row>
     <row r="12">
@@ -1934,85 +1899,82 @@
         <v>159.3754706272181</v>
       </c>
       <c r="O12" t="n">
-        <v>386.4504288416838</v>
+        <v>55600.84304962788</v>
       </c>
       <c r="P12" t="n">
-        <v>34096.77120413793</v>
+        <v>1853.355539663041</v>
       </c>
       <c r="Q12" t="n">
-        <v>1853.355539663041</v>
+        <v>9093.061531753876</v>
       </c>
       <c r="R12" t="n">
-        <v>5117.84920912078</v>
+        <v>3703.154601879136</v>
       </c>
       <c r="S12" t="n">
-        <v>2003.094731225869</v>
+        <v>343.6594445917265</v>
       </c>
       <c r="T12" t="n">
-        <v>192.833601931255</v>
+        <v>1415.483693267453</v>
       </c>
       <c r="U12" t="n">
-        <v>761.095756311973</v>
+        <v>66.57651647427784</v>
       </c>
       <c r="V12" t="n">
-        <v>35.28433616732932</v>
+        <v>5118.645563623339</v>
       </c>
       <c r="W12" t="n">
-        <v>2764.190487537842</v>
+        <v>410.2248305663967</v>
       </c>
       <c r="X12" t="n">
-        <v>228.1179380985844</v>
+        <v>590.1608737295675</v>
       </c>
       <c r="Y12" t="n">
-        <v>352.1207202664434</v>
+        <v>36.70999260418851</v>
       </c>
       <c r="Z12" t="n">
-        <v>19.5661222267813</v>
+        <v>413.3620677716549</v>
       </c>
       <c r="AA12" t="n">
-        <v>250.5294533170531</v>
+        <v>65.16977759366014</v>
       </c>
       <c r="AB12" t="n">
-        <v>36.46776803866992</v>
+        <v>58712.99911999634</v>
       </c>
       <c r="AC12" t="n">
-        <v>39232.4022912871</v>
+        <v>1957.100337504027</v>
       </c>
       <c r="AD12" t="n">
-        <v>1957.100337504027</v>
+        <v>11324.60681451305</v>
       </c>
       <c r="AE12" t="n">
-        <v>7240.627090555815</v>
+        <v>4433.851596565968</v>
       </c>
       <c r="AF12" t="n">
-        <v>2747.694397921484</v>
+        <v>390.0724567062832</v>
       </c>
       <c r="AG12" t="n">
-        <v>249.5864555458922</v>
+        <v>1070.082107950501</v>
       </c>
       <c r="AH12" t="n">
-        <v>660.0777865276779</v>
+        <v>52.64754831785122</v>
       </c>
       <c r="AI12" t="n">
-        <v>33.65789162283788</v>
+        <v>5503.941257483139</v>
       </c>
       <c r="AJ12" t="n">
-        <v>3407.772184449162</v>
+        <v>442.7256954297565</v>
       </c>
       <c r="AK12" t="n">
-        <v>283.2443471687301</v>
+        <v>643.7041823777199</v>
       </c>
       <c r="AL12" t="n">
-        <v>434.7955349638572</v>
+        <v>29.02347853297464</v>
       </c>
       <c r="AM12" t="n">
-        <v>19.37303726628374</v>
+        <v>455.4106065606001</v>
       </c>
       <c r="AN12" t="n">
-        <v>316.0596340431938</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>55.80661505891768</v>
+        <v>83.49124851078938</v>
       </c>
     </row>
     <row r="13">
@@ -2059,85 +2021,82 @@
         <v>153.4157105368564</v>
       </c>
       <c r="O13" t="n">
-        <v>383.9811107127715</v>
+        <v>55070.35509786291</v>
       </c>
       <c r="P13" t="n">
-        <v>33657.96936902883</v>
+        <v>1835.688071391628</v>
       </c>
       <c r="Q13" t="n">
-        <v>1835.688071391628</v>
+        <v>9126.254877498121</v>
       </c>
       <c r="R13" t="n">
-        <v>5267.752577299686</v>
+        <v>3947.722117783305</v>
       </c>
       <c r="S13" t="n">
-        <v>2122.271129664513</v>
+        <v>378.6811785700323</v>
       </c>
       <c r="T13" t="n">
-        <v>208.7387323190289</v>
+        <v>1524.534049026542</v>
       </c>
       <c r="U13" t="n">
-        <v>801.2620224452081</v>
+        <v>78.26608728299823</v>
       </c>
       <c r="V13" t="n">
-        <v>41.20742463532464</v>
+        <v>5472.239302283039</v>
       </c>
       <c r="W13" t="n">
-        <v>2923.533152109721</v>
+        <v>456.9491703615699</v>
       </c>
       <c r="X13" t="n">
-        <v>249.9461569543535</v>
+        <v>602.5808610558172</v>
       </c>
       <c r="Y13" t="n">
-        <v>353.7207830531599</v>
+        <v>37.24537151148689</v>
       </c>
       <c r="Z13" t="n">
-        <v>23.04163727152367</v>
+        <v>433.7751800518665</v>
       </c>
       <c r="AA13" t="n">
-        <v>261.9724306084542</v>
+        <v>74.23979985501039</v>
       </c>
       <c r="AB13" t="n">
-        <v>39.37681531955023</v>
+        <v>56976.23978191282</v>
       </c>
       <c r="AC13" t="n">
-        <v>34642.2782677253</v>
+        <v>1899.212040026234</v>
       </c>
       <c r="AD13" t="n">
-        <v>1899.212040026234</v>
+        <v>10961.33187893526</v>
       </c>
       <c r="AE13" t="n">
-        <v>6579.822836707988</v>
+        <v>4556.92134014446</v>
       </c>
       <c r="AF13" t="n">
-        <v>2671.352213564844</v>
+        <v>424.5177339690507</v>
       </c>
       <c r="AG13" t="n">
-        <v>247.0950005685315</v>
+        <v>1353.312681001765</v>
       </c>
       <c r="AH13" t="n">
-        <v>726.6665884194745</v>
+        <v>67.07741992630477</v>
       </c>
       <c r="AI13" t="n">
-        <v>37.28607530054195</v>
+        <v>5910.241481914849</v>
       </c>
       <c r="AJ13" t="n">
-        <v>3398.018801984318</v>
+        <v>491.589504086327</v>
       </c>
       <c r="AK13" t="n">
-        <v>284.3810758690735</v>
+        <v>644.0124177442457</v>
       </c>
       <c r="AL13" t="n">
-        <v>395.112700085113</v>
+        <v>34.35680842320471</v>
       </c>
       <c r="AM13" t="n">
-        <v>21.18565270150505</v>
+        <v>478.1952080782333</v>
       </c>
       <c r="AN13" t="n">
-        <v>293.8914544010742</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>47.38479177777166</v>
+        <v>81.77859834491129</v>
       </c>
     </row>
     <row r="14">
@@ -2184,85 +2143,82 @@
         <v>174.4893346802054</v>
       </c>
       <c r="O14" t="n">
-        <v>391.4749115075617</v>
+        <v>57651.12393566972</v>
       </c>
       <c r="P14" t="n">
-        <v>35835.06312069546</v>
+        <v>1921.706931579697</v>
       </c>
       <c r="Q14" t="n">
-        <v>1921.706931579697</v>
+        <v>10367.61716250929</v>
       </c>
       <c r="R14" t="n">
-        <v>5777.868930022645</v>
+        <v>4629.716841722622</v>
       </c>
       <c r="S14" t="n">
-        <v>2297.332380642244</v>
+        <v>407.2884574454565</v>
       </c>
       <c r="T14" t="n">
-        <v>211.4334517591372</v>
+        <v>1811.045357685281</v>
       </c>
       <c r="U14" t="n">
-        <v>859.7340743018833</v>
+        <v>77.562847935458</v>
       </c>
       <c r="V14" t="n">
-        <v>41.98862178055183</v>
+        <v>6440.768025107916</v>
       </c>
       <c r="W14" t="n">
-        <v>3157.066454944128</v>
+        <v>484.8532630100593</v>
       </c>
       <c r="X14" t="n">
-        <v>253.4220735396891</v>
+        <v>606.6232030180165</v>
       </c>
       <c r="Y14" t="n">
-        <v>367.0815982037649</v>
+        <v>33.09997837142191</v>
       </c>
       <c r="Z14" t="n">
-        <v>21.59988192713384</v>
+        <v>409.7545441634477</v>
       </c>
       <c r="AA14" t="n">
-        <v>247.8444977523394</v>
+        <v>75.32273310648922</v>
       </c>
       <c r="AB14" t="n">
-        <v>43.20233974949195</v>
+        <v>60553.23252728484</v>
       </c>
       <c r="AC14" t="n">
-        <v>37959.97283114247</v>
+        <v>2018.438936550393</v>
       </c>
       <c r="AD14" t="n">
-        <v>2018.438936550393</v>
+        <v>12739.36321985528</v>
       </c>
       <c r="AE14" t="n">
-        <v>7700.778220042729</v>
+        <v>4770.595170658969</v>
       </c>
       <c r="AF14" t="n">
-        <v>2856.73610667838</v>
+        <v>429.6601544911559</v>
       </c>
       <c r="AG14" t="n">
-        <v>260.6271870622173</v>
+        <v>1252.272977452737</v>
       </c>
       <c r="AH14" t="n">
-        <v>736.8907636134967</v>
+        <v>57.13624627454183</v>
       </c>
       <c r="AI14" t="n">
-        <v>37.61475879425536</v>
+        <v>6022.871920629203</v>
       </c>
       <c r="AJ14" t="n">
-        <v>3593.626870291876</v>
+        <v>486.7944028078493</v>
       </c>
       <c r="AK14" t="n">
-        <v>298.2419458564727</v>
+        <v>686.6481671724084</v>
       </c>
       <c r="AL14" t="n">
-        <v>436.3468702846297</v>
+        <v>31.07764166635666</v>
       </c>
       <c r="AM14" t="n">
-        <v>20.74408195975978</v>
+        <v>486.604354727164</v>
       </c>
       <c r="AN14" t="n">
-        <v>312.8101411204756</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>57.12294544329738</v>
+        <v>94.06462951367641</v>
       </c>
     </row>
     <row r="15">
@@ -2309,85 +2265,82 @@
         <v>164.4989954019991</v>
       </c>
       <c r="O15" t="n">
-        <v>364.5423993859998</v>
+        <v>52184.93289732782</v>
       </c>
       <c r="P15" t="n">
-        <v>37016.40792561341</v>
+        <v>1739.498387549063</v>
       </c>
       <c r="Q15" t="n">
-        <v>1739.498387549063</v>
+        <v>8559.652264612261</v>
       </c>
       <c r="R15" t="n">
-        <v>5718.99801097614</v>
+        <v>3608.162999808905</v>
       </c>
       <c r="S15" t="n">
-        <v>2232.421498659766</v>
+        <v>315.8994780549926</v>
       </c>
       <c r="T15" t="n">
-        <v>209.6555734971172</v>
+        <v>1208.017631974506</v>
       </c>
       <c r="U15" t="n">
-        <v>807.6661309773051</v>
+        <v>54.14689677470117</v>
       </c>
       <c r="V15" t="n">
-        <v>38.7443070450566</v>
+        <v>4816.164053580823</v>
       </c>
       <c r="W15" t="n">
-        <v>3040.087629637071</v>
+        <v>370.0501576560223</v>
       </c>
       <c r="X15" t="n">
-        <v>248.3998805421738</v>
+        <v>556.8019107222173</v>
       </c>
       <c r="Y15" t="n">
-        <v>382.4752886223685</v>
+        <v>32.5374940837532</v>
       </c>
       <c r="Z15" t="n">
-        <v>23.3199019710442</v>
+        <v>374.6856975124414</v>
       </c>
       <c r="AA15" t="n">
-        <v>269.6480296716615</v>
+        <v>62.62131845319509</v>
       </c>
       <c r="AB15" t="n">
-        <v>41.31508434448494</v>
+        <v>55953.630408023</v>
       </c>
       <c r="AC15" t="n">
-        <v>33957.05751656519</v>
+        <v>1865.118164057004</v>
       </c>
       <c r="AD15" t="n">
-        <v>1865.118164057004</v>
+        <v>10865.10889685135</v>
       </c>
       <c r="AE15" t="n">
-        <v>6518.68611147096</v>
+        <v>4481.310079481676</v>
       </c>
       <c r="AF15" t="n">
-        <v>2655.901145646127</v>
+        <v>413.9551863478127</v>
       </c>
       <c r="AG15" t="n">
-        <v>243.2797460000212</v>
+        <v>1162.959681760737</v>
       </c>
       <c r="AH15" t="n">
-        <v>689.2351656810365</v>
+        <v>60.81399029592626</v>
       </c>
       <c r="AI15" t="n">
-        <v>36.41613110394112</v>
+        <v>5644.267924937082</v>
       </c>
       <c r="AJ15" t="n">
-        <v>3345.136311327163</v>
+        <v>474.778707850441</v>
       </c>
       <c r="AK15" t="n">
-        <v>279.6958771039623</v>
+        <v>654.2340756890558</v>
       </c>
       <c r="AL15" t="n">
-        <v>408.3912467964528</v>
+        <v>41.90142650641933</v>
       </c>
       <c r="AM15" t="n">
-        <v>23.67360212004148</v>
+        <v>448.5561950790653</v>
       </c>
       <c r="AN15" t="n">
-        <v>280.8378903273912</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>53.16562536785218</v>
+        <v>91.93772193761991</v>
       </c>
     </row>
     <row r="16">
@@ -2434,85 +2387,82 @@
         <v>150.5176466727616</v>
       </c>
       <c r="O16" t="n">
-        <v>363.3891473251859</v>
+        <v>51945.20017044483</v>
       </c>
       <c r="P16" t="n">
-        <v>39894.27558882496</v>
+        <v>1731.502911041153</v>
       </c>
       <c r="Q16" t="n">
-        <v>1731.502911041153</v>
+        <v>8327.605900538982</v>
       </c>
       <c r="R16" t="n">
-        <v>6052.624582798909</v>
+        <v>3401.06511573571</v>
       </c>
       <c r="S16" t="n">
-        <v>2316.184170506542</v>
+        <v>330.4391066156682</v>
       </c>
       <c r="T16" t="n">
-        <v>229.7241003215234</v>
+        <v>1191.612707887209</v>
       </c>
       <c r="U16" t="n">
-        <v>834.5203784230459</v>
+        <v>59.82958031323484</v>
       </c>
       <c r="V16" t="n">
-        <v>42.27441114999408</v>
+        <v>4592.679640155208</v>
       </c>
       <c r="W16" t="n">
-        <v>3150.704548929588</v>
+        <v>390.2687493110192</v>
       </c>
       <c r="X16" t="n">
-        <v>271.9985114715174</v>
+        <v>563.239610798707</v>
       </c>
       <c r="Y16" t="n">
-        <v>423.779544514714</v>
+        <v>29.06136289492403</v>
       </c>
       <c r="Z16" t="n">
-        <v>23.32680887221163</v>
+        <v>392.1176857892959</v>
       </c>
       <c r="AA16" t="n">
-        <v>304.2885102517201</v>
+        <v>57.63160797059693</v>
       </c>
       <c r="AB16" t="n">
-        <v>41.88411931362494</v>
+        <v>53052.14829733405</v>
       </c>
       <c r="AC16" t="n">
-        <v>33543.8602978478</v>
+        <v>1768.398872593603</v>
       </c>
       <c r="AD16" t="n">
-        <v>1768.398872593603</v>
+        <v>9781.258590398931</v>
       </c>
       <c r="AE16" t="n">
-        <v>6145.062536745913</v>
+        <v>3913.10423844621</v>
       </c>
       <c r="AF16" t="n">
-        <v>2445.41337269211</v>
+        <v>366.7719268492056</v>
       </c>
       <c r="AG16" t="n">
-        <v>229.6602064336427</v>
+        <v>1082.858846771366</v>
       </c>
       <c r="AH16" t="n">
-        <v>617.8985544084778</v>
+        <v>56.24922581907686</v>
       </c>
       <c r="AI16" t="n">
-        <v>33.67367278578654</v>
+        <v>4995.950000241273</v>
       </c>
       <c r="AJ16" t="n">
-        <v>3063.311927100588</v>
+        <v>423.0268094098239</v>
       </c>
       <c r="AK16" t="n">
-        <v>263.3338792194293</v>
+        <v>617.3678236157849</v>
       </c>
       <c r="AL16" t="n">
-        <v>395.7104434178932</v>
+        <v>30.31439238511591</v>
       </c>
       <c r="AM16" t="n">
-        <v>18.80340735969437</v>
+        <v>441.2648028894951</v>
       </c>
       <c r="AN16" t="n">
-        <v>289.1348196424101</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>46.24791179465755</v>
+        <v>74.33710669035477</v>
       </c>
     </row>
     <row r="17">
@@ -2559,85 +2509,82 @@
         <v>165.4161310286301</v>
       </c>
       <c r="O17" t="n">
-        <v>358.6330417822371</v>
+        <v>52953.68525299001</v>
       </c>
       <c r="P17" t="n">
-        <v>32724.48021081077</v>
+        <v>1765.1192108495</v>
       </c>
       <c r="Q17" t="n">
-        <v>1765.1192108495</v>
+        <v>9007.000934500062</v>
       </c>
       <c r="R17" t="n">
-        <v>5310.956349361839</v>
+        <v>3690.921526163461</v>
       </c>
       <c r="S17" t="n">
-        <v>2071.553103947471</v>
+        <v>360.4267580530306</v>
       </c>
       <c r="T17" t="n">
-        <v>204.7233066641676</v>
+        <v>1361.990032276894</v>
       </c>
       <c r="U17" t="n">
-        <v>756.7554784143882</v>
+        <v>69.89642306828493</v>
       </c>
       <c r="V17" t="n">
-        <v>40.23070754834107</v>
+        <v>5052.904165168061</v>
       </c>
       <c r="W17" t="n">
-        <v>2828.308582361859</v>
+        <v>430.3176675122542</v>
       </c>
       <c r="X17" t="n">
-        <v>244.9540142125087</v>
+        <v>584.8470698377392</v>
       </c>
       <c r="Y17" t="n">
-        <v>354.7494555547549</v>
+        <v>36.21337699554566</v>
       </c>
       <c r="Z17" t="n">
-        <v>22.37498747407789</v>
+        <v>401.4605201401131</v>
       </c>
       <c r="AA17" t="n">
-        <v>249.2824876448005</v>
+        <v>69.02695011491656</v>
       </c>
       <c r="AB17" t="n">
-        <v>40.63522916206926</v>
+        <v>56447.92417877047</v>
       </c>
       <c r="AC17" t="n">
-        <v>35996.12975826971</v>
+        <v>1881.598468716669</v>
       </c>
       <c r="AD17" t="n">
-        <v>1881.598468716669</v>
+        <v>11401.41895537799</v>
       </c>
       <c r="AE17" t="n">
-        <v>7160.359073909545</v>
+        <v>4624.004920680102</v>
       </c>
       <c r="AF17" t="n">
-        <v>2877.074045996592</v>
+        <v>420.8640770536225</v>
       </c>
       <c r="AG17" t="n">
-        <v>264.348607800678</v>
+        <v>1132.173381474733</v>
       </c>
       <c r="AH17" t="n">
-        <v>728.1335671559584</v>
+        <v>61.73959715836922</v>
       </c>
       <c r="AI17" t="n">
-        <v>40.37205968490703</v>
+        <v>5756.169027212861</v>
       </c>
       <c r="AJ17" t="n">
-        <v>3605.207613152551</v>
+        <v>482.5961568501219</v>
       </c>
       <c r="AK17" t="n">
-        <v>304.7206674855851</v>
+        <v>684.3237944770805</v>
       </c>
       <c r="AL17" t="n">
-        <v>446.6344707932838</v>
+        <v>33.2155122426879</v>
       </c>
       <c r="AM17" t="n">
-        <v>21.69050163142505</v>
+        <v>475.9816357834313</v>
       </c>
       <c r="AN17" t="n">
-        <v>313.51601942928</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>52.82426047315763</v>
+        <v>86.76149360645809</v>
       </c>
     </row>
     <row r="18">
@@ -2684,85 +2631,82 @@
         <v>155.3709993433924</v>
       </c>
       <c r="O18" t="n">
-        <v>373.7770520228137</v>
+        <v>50982.34226007656</v>
       </c>
       <c r="P18" t="n">
-        <v>31649.19921043066</v>
+        <v>1699.414155057275</v>
       </c>
       <c r="Q18" t="n">
-        <v>1699.414155057275</v>
+        <v>8063.176592992299</v>
       </c>
       <c r="R18" t="n">
-        <v>4815.324066410174</v>
+        <v>3722.329549157451</v>
       </c>
       <c r="S18" t="n">
-        <v>2091.172994442645</v>
+        <v>343.2060764885852</v>
       </c>
       <c r="T18" t="n">
-        <v>198.955863057416</v>
+        <v>1327.101306132249</v>
       </c>
       <c r="U18" t="n">
-        <v>794.4556001114029</v>
+        <v>69.77393483561482</v>
       </c>
       <c r="V18" t="n">
-        <v>41.160765568092</v>
+        <v>5049.449339837405</v>
       </c>
       <c r="W18" t="n">
-        <v>2885.628594554049</v>
+        <v>412.9746589581767</v>
       </c>
       <c r="X18" t="n">
-        <v>240.116628625508</v>
+        <v>562.390262324707</v>
       </c>
       <c r="Y18" t="n">
-        <v>332.5354112845407</v>
+        <v>29.67887462870452</v>
       </c>
       <c r="Z18" t="n">
-        <v>16.12798732769884</v>
+        <v>364.1452409693845</v>
       </c>
       <c r="AA18" t="n">
-        <v>226.5735389105529</v>
+        <v>56.10430553083749</v>
       </c>
       <c r="AB18" t="n">
-        <v>33.43089031592444</v>
+        <v>57624.02334920775</v>
       </c>
       <c r="AC18" t="n">
-        <v>39036.01487866056</v>
+        <v>1920.801228348666</v>
       </c>
       <c r="AD18" t="n">
-        <v>1920.801228348666</v>
+        <v>11225.98461467025</v>
       </c>
       <c r="AE18" t="n">
-        <v>7352.140292984603</v>
+        <v>4289.164368019262</v>
       </c>
       <c r="AF18" t="n">
-        <v>2665.437125424089</v>
+        <v>388.8491660291178</v>
       </c>
       <c r="AG18" t="n">
-        <v>246.4901854449676</v>
+        <v>1032.794001158333</v>
       </c>
       <c r="AH18" t="n">
-        <v>622.1884416050707</v>
+        <v>53.84022121710954</v>
       </c>
       <c r="AI18" t="n">
-        <v>33.35807266347415</v>
+        <v>5321.947054642606</v>
       </c>
       <c r="AJ18" t="n">
-        <v>3287.62556702916</v>
+        <v>442.6970475485128</v>
       </c>
       <c r="AK18" t="n">
-        <v>279.8482581084417</v>
+        <v>689.0921138050475</v>
       </c>
       <c r="AL18" t="n">
-        <v>468.5978844527932</v>
+        <v>33.08722254624792</v>
       </c>
       <c r="AM18" t="n">
-        <v>20.84701772198471</v>
+        <v>486.7271895368625</v>
       </c>
       <c r="AN18" t="n">
-        <v>335.8908051315173</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>52.09381886497071</v>
+        <v>86.79638307044432</v>
       </c>
     </row>
     <row r="19">
@@ -2809,85 +2753,82 @@
         <v>172.1594415990776</v>
       </c>
       <c r="O19" t="n">
-        <v>371.3611194292029</v>
+        <v>52925.1601034421</v>
       </c>
       <c r="P19" t="n">
-        <v>34035.13230257435</v>
+        <v>1764.173874070518</v>
       </c>
       <c r="Q19" t="n">
-        <v>1764.173874070518</v>
+        <v>8705.210985548609</v>
       </c>
       <c r="R19" t="n">
-        <v>5387.826197671711</v>
+        <v>3436.073103573519</v>
       </c>
       <c r="S19" t="n">
-        <v>2059.69160979939</v>
+        <v>325.5723177905963</v>
       </c>
       <c r="T19" t="n">
-        <v>198.944192574433</v>
+        <v>1266.499825377239</v>
       </c>
       <c r="U19" t="n">
-        <v>749.4084953756164</v>
+        <v>57.71312770897715</v>
       </c>
       <c r="V19" t="n">
-        <v>36.52231301452969</v>
+        <v>4702.584690265101</v>
       </c>
       <c r="W19" t="n">
-        <v>2809.100105175007</v>
+        <v>383.2878553813204</v>
       </c>
       <c r="X19" t="n">
-        <v>235.4665055889627</v>
+        <v>596.9841793194053</v>
       </c>
       <c r="Y19" t="n">
-        <v>371.8957639119394</v>
+        <v>39.38754475841197</v>
       </c>
       <c r="Z19" t="n">
-        <v>22.15202126495639</v>
+        <v>409.9686967421145</v>
       </c>
       <c r="AA19" t="n">
-        <v>262.1697296460435</v>
+        <v>57.58682236843091</v>
       </c>
       <c r="AB19" t="n">
-        <v>35.33452161610815</v>
+        <v>59386.07261351738</v>
       </c>
       <c r="AC19" t="n">
-        <v>38368.3085901267</v>
+        <v>1979.533024451552</v>
       </c>
       <c r="AD19" t="n">
-        <v>1979.533024451552</v>
+        <v>11861.67551188641</v>
       </c>
       <c r="AE19" t="n">
-        <v>7446.544261254427</v>
+        <v>4832.642432067991</v>
       </c>
       <c r="AF19" t="n">
-        <v>2925.209349506436</v>
+        <v>444.5451841033248</v>
       </c>
       <c r="AG19" t="n">
-        <v>269.3572892148954</v>
+        <v>1562.812802983147</v>
       </c>
       <c r="AH19" t="n">
-        <v>767.5786076574755</v>
+        <v>69.88263547607133</v>
       </c>
       <c r="AI19" t="n">
-        <v>38.59252084480094</v>
+        <v>6395.462184278403</v>
       </c>
       <c r="AJ19" t="n">
-        <v>3692.787957163911</v>
+        <v>514.4159833274532</v>
       </c>
       <c r="AK19" t="n">
-        <v>307.9498100596963</v>
+        <v>693.2361429588793</v>
       </c>
       <c r="AL19" t="n">
-        <v>454.7719915353483</v>
+        <v>37.09075087567756</v>
       </c>
       <c r="AM19" t="n">
-        <v>22.13835611699807</v>
+        <v>484.1732145147321</v>
       </c>
       <c r="AN19" t="n">
-        <v>332.5142839013735</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>63.58721291079208</v>
+        <v>103.9910002978311</v>
       </c>
     </row>
     <row r="20">
@@ -2934,85 +2875,82 @@
         <v>163.982175728767</v>
       </c>
       <c r="O20" t="n">
-        <v>354.1908072250121</v>
+        <v>49836.00994640381</v>
       </c>
       <c r="P20" t="n">
-        <v>37068.87085819979</v>
+        <v>1661.201141077926</v>
       </c>
       <c r="Q20" t="n">
-        <v>1661.201141077926</v>
+        <v>8326.416778112125</v>
       </c>
       <c r="R20" t="n">
-        <v>5915.694533892665</v>
+        <v>3289.071591573806</v>
       </c>
       <c r="S20" t="n">
-        <v>2190.797322830701</v>
+        <v>330.5010607648561</v>
       </c>
       <c r="T20" t="n">
-        <v>220.4265627009277</v>
+        <v>1051.002938568262</v>
       </c>
       <c r="U20" t="n">
-        <v>691.6885830227343</v>
+        <v>49.73445417413224</v>
       </c>
       <c r="V20" t="n">
-        <v>37.11309172047894</v>
+        <v>4340.089428875956</v>
       </c>
       <c r="W20" t="n">
-        <v>2882.485905853436</v>
+        <v>380.2336718106912</v>
       </c>
       <c r="X20" t="n">
-        <v>257.5396544214067</v>
+        <v>572.603142338448</v>
       </c>
       <c r="Y20" t="n">
-        <v>417.490796199929</v>
+        <v>35.09320912079225</v>
       </c>
       <c r="Z20" t="n">
-        <v>24.25907519349312</v>
+        <v>408.0161215399168</v>
       </c>
       <c r="AA20" t="n">
-        <v>297.8402545381763</v>
+        <v>64.87268098139432</v>
       </c>
       <c r="AB20" t="n">
-        <v>43.54889423449603</v>
+        <v>56448.24242912951</v>
       </c>
       <c r="AC20" t="n">
-        <v>34530.22902999309</v>
+        <v>1881.609710356961</v>
       </c>
       <c r="AD20" t="n">
-        <v>1881.609710356961</v>
+        <v>11555.24704152931</v>
       </c>
       <c r="AE20" t="n">
-        <v>6932.110421382182</v>
+        <v>4880.479210296866</v>
       </c>
       <c r="AF20" t="n">
-        <v>2882.316052351051</v>
+        <v>444.2498246685974</v>
       </c>
       <c r="AG20" t="n">
-        <v>263.601890400408</v>
+        <v>1298.56401537564</v>
       </c>
       <c r="AH20" t="n">
-        <v>766.7377900956733</v>
+        <v>63.3330212545604</v>
       </c>
       <c r="AI20" t="n">
-        <v>39.85999586872545</v>
+        <v>6179.039296049436</v>
       </c>
       <c r="AJ20" t="n">
-        <v>3649.053842446724</v>
+        <v>507.5771616771086</v>
       </c>
       <c r="AK20" t="n">
-        <v>303.4618862691334</v>
+        <v>662.5000671352796</v>
       </c>
       <c r="AL20" t="n">
-        <v>411.8065417987694</v>
+        <v>35.43624548330886</v>
       </c>
       <c r="AM20" t="n">
-        <v>21.39955222094289</v>
+        <v>488.338820657986</v>
       </c>
       <c r="AN20" t="n">
-        <v>298.977922974605</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>50.23616560319988</v>
+        <v>83.48364048649566</v>
       </c>
     </row>
     <row r="21">
@@ -3059,85 +2997,82 @@
         <v>184.2702035144762</v>
       </c>
       <c r="O21" t="n">
-        <v>374.9963129220691</v>
+        <v>55048.73761961516</v>
       </c>
       <c r="P21" t="n">
-        <v>40054.2369132997</v>
+        <v>1834.957183179564</v>
       </c>
       <c r="Q21" t="n">
-        <v>1834.957183179564</v>
+        <v>9724.888582492924</v>
       </c>
       <c r="R21" t="n">
-        <v>6485.420317239918</v>
+        <v>4035.332807821658</v>
       </c>
       <c r="S21" t="n">
-        <v>2613.305855952745</v>
+        <v>371.436814667532</v>
       </c>
       <c r="T21" t="n">
-        <v>242.4376166130717</v>
+        <v>1131.173644771143</v>
       </c>
       <c r="U21" t="n">
-        <v>767.0127577474204</v>
+        <v>65.27923311865031</v>
       </c>
       <c r="V21" t="n">
-        <v>44.90608185087776</v>
+        <v>5166.504539403075</v>
       </c>
       <c r="W21" t="n">
-        <v>3380.318613700166</v>
+        <v>436.723600789175</v>
       </c>
       <c r="X21" t="n">
-        <v>287.3436984639494</v>
+        <v>596.9422009054941</v>
       </c>
       <c r="Y21" t="n">
-        <v>418.7316130697253</v>
+        <v>33.03648373735637</v>
       </c>
       <c r="Z21" t="n">
-        <v>22.01119318109915</v>
+        <v>413.8928919435679</v>
       </c>
       <c r="AA21" t="n">
-        <v>300.1480736200231</v>
+        <v>69.93916560332339</v>
       </c>
       <c r="AB21" t="n">
-        <v>50.27562143039203</v>
+        <v>61048.27211509728</v>
       </c>
       <c r="AC21" t="n">
-        <v>36951.71474527817</v>
+        <v>2034.938546281784</v>
       </c>
       <c r="AD21" t="n">
-        <v>2034.938546281784</v>
+        <v>12586.90313899907</v>
       </c>
       <c r="AE21" t="n">
-        <v>7417.915381513349</v>
+        <v>5674.590409791615</v>
       </c>
       <c r="AF21" t="n">
-        <v>3325.538903871374</v>
+        <v>487.0398652812439</v>
       </c>
       <c r="AG21" t="n">
-        <v>292.0215052974601</v>
+        <v>1562.55405088523</v>
       </c>
       <c r="AH21" t="n">
-        <v>1012.46307256012</v>
+        <v>69.02716220781369</v>
       </c>
       <c r="AI21" t="n">
-        <v>45.63663270210053</v>
+        <v>7237.153803217074</v>
       </c>
       <c r="AJ21" t="n">
-        <v>4338.001976431494</v>
+        <v>556.0743738011104</v>
       </c>
       <c r="AK21" t="n">
-        <v>337.6581379995606</v>
+        <v>745.9309150513554</v>
       </c>
       <c r="AL21" t="n">
-        <v>449.6513709744289</v>
+        <v>36.62537970872197</v>
       </c>
       <c r="AM21" t="n">
-        <v>20.94487374208411</v>
+        <v>532.253257704522</v>
       </c>
       <c r="AN21" t="n">
-        <v>322.1001579870398</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>55.9584950330964</v>
+        <v>105.0659346421591</v>
       </c>
     </row>
     <row r="22">
@@ -3184,85 +3119,82 @@
         <v>169.6475844828124</v>
       </c>
       <c r="O22" t="n">
-        <v>361.4332991105257</v>
+        <v>55883.17903243758</v>
       </c>
       <c r="P22" t="n">
-        <v>34404.69080555199</v>
+        <v>1862.768781370408</v>
       </c>
       <c r="Q22" t="n">
-        <v>1862.768781370408</v>
+        <v>10007.99581924834</v>
       </c>
       <c r="R22" t="n">
-        <v>5934.810082972197</v>
+        <v>4233.889719061229</v>
       </c>
       <c r="S22" t="n">
-        <v>2343.962077549222</v>
+        <v>393.5019099383182</v>
       </c>
       <c r="T22" t="n">
-        <v>220.0707055566862</v>
+        <v>1706.913216461597</v>
       </c>
       <c r="U22" t="n">
-        <v>853.0316566086561</v>
+        <v>84.9422057565756</v>
       </c>
       <c r="V22" t="n">
-        <v>44.08996753782013</v>
+        <v>5940.79168374016</v>
       </c>
       <c r="W22" t="n">
-        <v>3196.993734157878</v>
+        <v>478.442105908242</v>
       </c>
       <c r="X22" t="n">
-        <v>264.1606730945064</v>
+        <v>609.9359451853119</v>
       </c>
       <c r="Y22" t="n">
-        <v>363.2198174778788</v>
+        <v>49.6241780725959</v>
       </c>
       <c r="Z22" t="n">
-        <v>27.19036286378954</v>
+        <v>411.9877539644296</v>
       </c>
       <c r="AA22" t="n">
-        <v>254.4704565069401</v>
+        <v>79.54192099000218</v>
       </c>
       <c r="AB22" t="n">
-        <v>48.6921131481232</v>
+        <v>56450.00464244113</v>
       </c>
       <c r="AC22" t="n">
-        <v>35248.46744288067</v>
+        <v>1881.664466461622</v>
       </c>
       <c r="AD22" t="n">
-        <v>1881.664466461622</v>
+        <v>11567.16207148999</v>
       </c>
       <c r="AE22" t="n">
-        <v>7058.60662570563</v>
+        <v>5293.251539976272</v>
       </c>
       <c r="AF22" t="n">
-        <v>3078.428521173407</v>
+        <v>479.3273088546056</v>
       </c>
       <c r="AG22" t="n">
-        <v>278.9364272263615</v>
+        <v>1364.77209314249</v>
       </c>
       <c r="AH22" t="n">
-        <v>753.5256235544139</v>
+        <v>70.3136558518099</v>
       </c>
       <c r="AI22" t="n">
-        <v>41.48029326904243</v>
+        <v>6658.019898588379</v>
       </c>
       <c r="AJ22" t="n">
-        <v>3831.954144727821</v>
+        <v>549.6446517877239</v>
       </c>
       <c r="AK22" t="n">
-        <v>320.4167204954039</v>
+        <v>690.1950390246984</v>
       </c>
       <c r="AL22" t="n">
-        <v>429.9332487222721</v>
+        <v>35.485524457256</v>
       </c>
       <c r="AM22" t="n">
-        <v>20.48528903186076</v>
+        <v>465.1894594299754</v>
       </c>
       <c r="AN22" t="n">
-        <v>301.344009115533</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>51.404597390673</v>
+        <v>89.28088948808626</v>
       </c>
     </row>
     <row r="23">
@@ -3309,85 +3241,82 @@
         <v>174.107077129766</v>
       </c>
       <c r="O23" t="n">
-        <v>388.2570485561667</v>
+        <v>58086.4863294727</v>
       </c>
       <c r="P23" t="n">
-        <v>36947.27458814281</v>
+        <v>1936.226280224034</v>
       </c>
       <c r="Q23" t="n">
-        <v>1936.226280224034</v>
+        <v>10489.24530556921</v>
       </c>
       <c r="R23" t="n">
-        <v>6323.199811994311</v>
+        <v>4310.906326670147</v>
       </c>
       <c r="S23" t="n">
-        <v>2397.150101464021</v>
+        <v>410.5846330793307</v>
       </c>
       <c r="T23" t="n">
-        <v>230.488142262352</v>
+        <v>1836.859658012315</v>
       </c>
       <c r="U23" t="n">
-        <v>789.3955160220044</v>
+        <v>72.8856913466399</v>
       </c>
       <c r="V23" t="n">
-        <v>38.99131367894405</v>
+        <v>6147.764221854477</v>
       </c>
       <c r="W23" t="n">
-        <v>3186.545617486025</v>
+        <v>483.4704720898819</v>
       </c>
       <c r="X23" t="n">
-        <v>269.4794559412961</v>
+        <v>645.1682039389469</v>
       </c>
       <c r="Y23" t="n">
-        <v>395.7529604053699</v>
+        <v>42.20124701549553</v>
       </c>
       <c r="Z23" t="n">
-        <v>24.32404589094779</v>
+        <v>443.3270131529981</v>
       </c>
       <c r="AA23" t="n">
-        <v>292.3818631794814</v>
+        <v>72.7858903908635</v>
       </c>
       <c r="AB23" t="n">
-        <v>43.13470540463256</v>
+        <v>60502.42447263416</v>
       </c>
       <c r="AC23" t="n">
-        <v>40507.9419935652</v>
+        <v>2016.749070724632</v>
       </c>
       <c r="AD23" t="n">
-        <v>2016.749070724632</v>
+        <v>12406.687066577</v>
       </c>
       <c r="AE23" t="n">
-        <v>8069.58681630506</v>
+        <v>5392.447797146267</v>
       </c>
       <c r="AF23" t="n">
-        <v>3429.917683506251</v>
+        <v>474.1812624524304</v>
       </c>
       <c r="AG23" t="n">
-        <v>304.1016027391876</v>
+        <v>1345.139511673166</v>
       </c>
       <c r="AH23" t="n">
-        <v>830.7735496328316</v>
+        <v>72.00460905020337</v>
       </c>
       <c r="AI23" t="n">
-        <v>44.94431442432151</v>
+        <v>6737.589099659058</v>
       </c>
       <c r="AJ23" t="n">
-        <v>4260.691233139083</v>
+        <v>546.1820698596177</v>
       </c>
       <c r="AK23" t="n">
-        <v>349.045917163509</v>
+        <v>722.7261445000142</v>
       </c>
       <c r="AL23" t="n">
-        <v>500.993589838924</v>
+        <v>42.82152256457537</v>
       </c>
       <c r="AM23" t="n">
-        <v>27.94437943738131</v>
+        <v>510.6586922018138</v>
       </c>
       <c r="AN23" t="n">
-        <v>363.9366115825237</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>66.62553564947747</v>
+        <v>98.71995583034202</v>
       </c>
     </row>
     <row r="24">
@@ -3434,85 +3363,82 @@
         <v>159.9856605503821</v>
       </c>
       <c r="O24" t="n">
-        <v>359.9039209700626</v>
+        <v>55270.72246185362</v>
       </c>
       <c r="P24" t="n">
-        <v>36008.50113931495</v>
+        <v>1842.361142367711</v>
       </c>
       <c r="Q24" t="n">
-        <v>1842.361142367711</v>
+        <v>9332.321191509345</v>
       </c>
       <c r="R24" t="n">
-        <v>5758.763796511215</v>
+        <v>3696.471215337534</v>
       </c>
       <c r="S24" t="n">
-        <v>2225.936277294526</v>
+        <v>348.6136598099205</v>
       </c>
       <c r="T24" t="n">
-        <v>209.755869249661</v>
+        <v>1214.098223518422</v>
       </c>
       <c r="U24" t="n">
-        <v>687.6672040785395</v>
+        <v>55.42800647138696</v>
       </c>
       <c r="V24" t="n">
-        <v>34.41580966905411</v>
+        <v>4910.580454845407</v>
       </c>
       <c r="W24" t="n">
-        <v>2913.603481373066</v>
+        <v>404.0511612482088</v>
       </c>
       <c r="X24" t="n">
-        <v>244.1716789187151</v>
+        <v>594.8972658743912</v>
       </c>
       <c r="Y24" t="n">
-        <v>372.0028358981053</v>
+        <v>34.38735784922982</v>
       </c>
       <c r="Z24" t="n">
-        <v>23.56269582155431</v>
+        <v>401.1401828265306</v>
       </c>
       <c r="AA24" t="n">
-        <v>264.3189985523285</v>
+        <v>69.01168256263517</v>
       </c>
       <c r="AB24" t="n">
-        <v>41.66487640441492</v>
+        <v>59212.93625536113</v>
       </c>
       <c r="AC24" t="n">
-        <v>34920.09459018749</v>
+        <v>1973.762218885602</v>
       </c>
       <c r="AD24" t="n">
-        <v>1973.762218885602</v>
+        <v>11885.05924380652</v>
       </c>
       <c r="AE24" t="n">
-        <v>6885.237289821885</v>
+        <v>4709.436009976288</v>
       </c>
       <c r="AF24" t="n">
-        <v>2632.16677890468</v>
+        <v>422.6537274701046</v>
       </c>
       <c r="AG24" t="n">
-        <v>240.0340893835541</v>
+        <v>1168.518278501653</v>
       </c>
       <c r="AH24" t="n">
-        <v>639.7897048960143</v>
+        <v>59.60000831156075</v>
       </c>
       <c r="AI24" t="n">
-        <v>32.14376842056904</v>
+        <v>5877.942043822783</v>
       </c>
       <c r="AJ24" t="n">
-        <v>3271.956483800695</v>
+        <v>482.2590177284283</v>
       </c>
       <c r="AK24" t="n">
-        <v>272.1778578041232</v>
+        <v>665.2089596015278</v>
       </c>
       <c r="AL24" t="n">
-        <v>409.0337708439998</v>
+        <v>32.4900564605126</v>
       </c>
       <c r="AM24" t="n">
-        <v>19.35616871069343</v>
+        <v>483.309862407856</v>
       </c>
       <c r="AN24" t="n">
-        <v>295.5267835193359</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>51.12925095484401</v>
+        <v>87.02754916118317</v>
       </c>
     </row>
     <row r="25">
@@ -3559,85 +3485,82 @@
         <v>178.7036159244453</v>
       </c>
       <c r="O25" t="n">
-        <v>375.3291348167207</v>
+        <v>56162.32445964932</v>
       </c>
       <c r="P25" t="n">
-        <v>39668.08706308845</v>
+        <v>1872.080453179699</v>
       </c>
       <c r="Q25" t="n">
-        <v>1872.080453179699</v>
+        <v>9147.015019231123</v>
       </c>
       <c r="R25" t="n">
-        <v>6220.408573241965</v>
+        <v>3774.351999154115</v>
       </c>
       <c r="S25" t="n">
-        <v>2417.643439537671</v>
+        <v>348.7571956206008</v>
       </c>
       <c r="T25" t="n">
-        <v>229.5256240948594</v>
+        <v>1405.216626276466</v>
       </c>
       <c r="U25" t="n">
-        <v>752.6697036569533</v>
+        <v>63.81984227297706</v>
       </c>
       <c r="V25" t="n">
-        <v>40.25284940782094</v>
+        <v>5179.562997921902</v>
       </c>
       <c r="W25" t="n">
-        <v>3170.313143194624</v>
+        <v>412.5789258115308</v>
       </c>
       <c r="X25" t="n">
-        <v>269.7784735026804</v>
+        <v>598.4165195052991</v>
       </c>
       <c r="Y25" t="n">
-        <v>425.6161005614111</v>
+        <v>30.94525795730976</v>
       </c>
       <c r="Z25" t="n">
-        <v>23.63857089157978</v>
+        <v>413.4682873425745</v>
       </c>
       <c r="AA25" t="n">
-        <v>299.1394524137665</v>
+        <v>68.79015369416287</v>
       </c>
       <c r="AB25" t="n">
-        <v>47.23179598594874</v>
+        <v>60769.70168035357</v>
       </c>
       <c r="AC25" t="n">
-        <v>38212.00101364284</v>
+        <v>2025.64378212728</v>
       </c>
       <c r="AD25" t="n">
-        <v>2025.64378212728</v>
+        <v>12725.02617986857</v>
       </c>
       <c r="AE25" t="n">
-        <v>7719.982057547434</v>
+        <v>4945.100094632946</v>
       </c>
       <c r="AF25" t="n">
-        <v>2913.913666698435</v>
+        <v>446.9996291681883</v>
       </c>
       <c r="AG25" t="n">
-        <v>269.4753994167447</v>
+        <v>1166.172565871817</v>
       </c>
       <c r="AH25" t="n">
-        <v>715.8849841398867</v>
+        <v>62.71870789716807</v>
       </c>
       <c r="AI25" t="n">
-        <v>37.81135557613545</v>
+        <v>6111.278324421983</v>
       </c>
       <c r="AJ25" t="n">
-        <v>3629.798650838321</v>
+        <v>509.7240525627491</v>
       </c>
       <c r="AK25" t="n">
-        <v>307.2867549928801</v>
+        <v>686.8718482142334</v>
       </c>
       <c r="AL25" t="n">
-        <v>439.606962487198</v>
+        <v>37.68407018966854</v>
       </c>
       <c r="AM25" t="n">
-        <v>22.30166697965625</v>
+        <v>473.7094845312428</v>
       </c>
       <c r="AN25" t="n">
-        <v>307.4304233562009</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>54.4209238820949</v>
+        <v>89.27730342411182</v>
       </c>
     </row>
     <row r="26">
@@ -3684,85 +3607,82 @@
         <v>164.2217779041143</v>
       </c>
       <c r="O26" t="n">
-        <v>368.1746997031015</v>
+        <v>50934.89019152276</v>
       </c>
       <c r="P26" t="n">
-        <v>36420.92145238059</v>
+        <v>1697.832989684543</v>
       </c>
       <c r="Q26" t="n">
-        <v>1697.832989684543</v>
+        <v>8720.219342306413</v>
       </c>
       <c r="R26" t="n">
-        <v>5923.546140111323</v>
+        <v>3507.091423578945</v>
       </c>
       <c r="S26" t="n">
-        <v>2304.798618700408</v>
+        <v>315.4950142373866</v>
       </c>
       <c r="T26" t="n">
-        <v>211.7483106140491</v>
+        <v>1087.022883730128</v>
       </c>
       <c r="U26" t="n">
-        <v>711.3001152905106</v>
+        <v>57.62550931303349</v>
       </c>
       <c r="V26" t="n">
-        <v>37.75443248981571</v>
+        <v>4594.120061728658</v>
       </c>
       <c r="W26" t="n">
-        <v>3016.098733990918</v>
+        <v>373.1203369519836</v>
       </c>
       <c r="X26" t="n">
-        <v>249.5027431038648</v>
+        <v>556.7390032862928</v>
       </c>
       <c r="Y26" t="n">
-        <v>393.181250426983</v>
+        <v>29.57199895839751</v>
       </c>
       <c r="Z26" t="n">
-        <v>20.84976577499263</v>
+        <v>390.3144896245195</v>
       </c>
       <c r="AA26" t="n">
-        <v>280.1950731662372</v>
+        <v>60.91375372931424</v>
       </c>
       <c r="AB26" t="n">
-        <v>44.23298677776125</v>
+        <v>56167.31092089337</v>
       </c>
       <c r="AC26" t="n">
-        <v>37452.69557560996</v>
+        <v>1872.244845074693</v>
       </c>
       <c r="AD26" t="n">
-        <v>1872.244845074693</v>
+        <v>11475.36991999354</v>
       </c>
       <c r="AE26" t="n">
-        <v>7411.935656813046</v>
+        <v>4640.780624214311</v>
       </c>
       <c r="AF26" t="n">
-        <v>2869.960168154832</v>
+        <v>407.9010202605185</v>
       </c>
       <c r="AG26" t="n">
-        <v>259.7638237902519</v>
+        <v>1131.714029291335</v>
       </c>
       <c r="AH26" t="n">
-        <v>727.4822551823964</v>
+        <v>61.0193676506765</v>
       </c>
       <c r="AI26" t="n">
-        <v>38.2876066443264</v>
+        <v>5772.496543269425</v>
       </c>
       <c r="AJ26" t="n">
-        <v>3597.442423337229</v>
+        <v>468.9316459440601</v>
       </c>
       <c r="AK26" t="n">
-        <v>298.0514304345783</v>
+        <v>648.8269262483063</v>
       </c>
       <c r="AL26" t="n">
-        <v>436.3655812784033</v>
+        <v>27.31268006634152</v>
       </c>
       <c r="AM26" t="n">
-        <v>18.16679636630433</v>
+        <v>474.2632157607098</v>
       </c>
       <c r="AN26" t="n">
-        <v>324.3322064084101</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>52.12181830199139</v>
+        <v>78.0105812567227</v>
       </c>
     </row>
     <row r="27">
@@ -3809,85 +3729,82 @@
         <v>174.994409888048</v>
       </c>
       <c r="O27" t="n">
-        <v>374.6300916476838</v>
+        <v>55863.43438376526</v>
       </c>
       <c r="P27" t="n">
-        <v>34412.61685617274</v>
+        <v>1862.111434927712</v>
       </c>
       <c r="Q27" t="n">
-        <v>1862.111434927712</v>
+        <v>10069.78003201916</v>
       </c>
       <c r="R27" t="n">
-        <v>5909.210686249926</v>
+        <v>4688.0685621436</v>
       </c>
       <c r="S27" t="n">
-        <v>2529.821772853676</v>
+        <v>405.2437339188439</v>
       </c>
       <c r="T27" t="n">
-        <v>230.3770097136023</v>
+        <v>1843.116044051208</v>
       </c>
       <c r="U27" t="n">
-        <v>873.7097286524216</v>
+        <v>85.3360286287739</v>
       </c>
       <c r="V27" t="n">
-        <v>46.10679960151699</v>
+        <v>6531.192027133991</v>
       </c>
       <c r="W27" t="n">
-        <v>3403.531501506097</v>
+        <v>490.583634693019</v>
       </c>
       <c r="X27" t="n">
-        <v>276.4838093151193</v>
+        <v>576.3900165323901</v>
       </c>
       <c r="Y27" t="n">
-        <v>354.8130063048129</v>
+        <v>32.62137941986163</v>
       </c>
       <c r="Z27" t="n">
-        <v>20.10776816246217</v>
+        <v>393.4213730274759</v>
       </c>
       <c r="AA27" t="n">
-        <v>249.9948491183515</v>
+        <v>68.62097048126071</v>
       </c>
       <c r="AB27" t="n">
-        <v>41.51329104423367</v>
+        <v>60908.06322909133</v>
       </c>
       <c r="AC27" t="n">
-        <v>34771.34766914781</v>
+        <v>2030.266172599592</v>
       </c>
       <c r="AD27" t="n">
-        <v>2030.266172599592</v>
+        <v>12378.85286836587</v>
       </c>
       <c r="AE27" t="n">
-        <v>6741.551936945005</v>
+        <v>4849.158810584925</v>
       </c>
       <c r="AF27" t="n">
-        <v>2586.28540902652</v>
+        <v>448.8945279060919</v>
       </c>
       <c r="AG27" t="n">
-        <v>240.5845367214605</v>
+        <v>1383.652258912545</v>
       </c>
       <c r="AH27" t="n">
-        <v>680.0586426056211</v>
+        <v>69.78794593680911</v>
       </c>
       <c r="AI27" t="n">
-        <v>33.84431675387413</v>
+        <v>6232.820383203085</v>
       </c>
       <c r="AJ27" t="n">
-        <v>3266.344051632142</v>
+        <v>518.6959849148417</v>
       </c>
       <c r="AK27" t="n">
-        <v>274.4288534753346</v>
+        <v>750.2836173978696</v>
       </c>
       <c r="AL27" t="n">
-        <v>421.3923915939051</v>
+        <v>43.07128790252245</v>
       </c>
       <c r="AM27" t="n">
-        <v>22.7697667040627</v>
+        <v>498.0692548868011</v>
       </c>
       <c r="AN27" t="n">
-        <v>285.4951052830462</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>52.59258717665337</v>
+        <v>94.60667425684076</v>
       </c>
     </row>
     <row r="28">
@@ -3934,85 +3851,82 @@
         <v>166.087537197232</v>
       </c>
       <c r="O28" t="n">
-        <v>372.9306528812386</v>
+        <v>56539.46389336513</v>
       </c>
       <c r="P28" t="n">
-        <v>36565.46836549217</v>
+        <v>1884.643589107449</v>
       </c>
       <c r="Q28" t="n">
-        <v>1884.643589107449</v>
+        <v>10286.03616622749</v>
       </c>
       <c r="R28" t="n">
-        <v>6316.066630636838</v>
+        <v>4025.838481889914</v>
       </c>
       <c r="S28" t="n">
-        <v>2402.034914733111</v>
+        <v>358.6899173238066</v>
       </c>
       <c r="T28" t="n">
-        <v>218.2780205323969</v>
+        <v>1141.304508314405</v>
       </c>
       <c r="U28" t="n">
-        <v>742.0661825031917</v>
+        <v>55.53500215544091</v>
       </c>
       <c r="V28" t="n">
-        <v>36.80214505180955</v>
+        <v>5167.156283368481</v>
       </c>
       <c r="W28" t="n">
-        <v>3144.101097236303</v>
+        <v>414.2325117583423</v>
       </c>
       <c r="X28" t="n">
-        <v>255.0801655842064</v>
+        <v>614.5945844060884</v>
       </c>
       <c r="Y28" t="n">
-        <v>385.0259824722092</v>
+        <v>36.73745467346874</v>
       </c>
       <c r="Z28" t="n">
-        <v>21.48880055703349</v>
+        <v>425.8407374927889</v>
       </c>
       <c r="AA28" t="n">
-        <v>278.4249916107167</v>
+        <v>74.28899458475712</v>
       </c>
       <c r="AB28" t="n">
-        <v>44.31459858133869</v>
+        <v>58464.89388180153</v>
       </c>
       <c r="AC28" t="n">
-        <v>34801.45007819622</v>
+        <v>1948.834953512132</v>
       </c>
       <c r="AD28" t="n">
-        <v>1948.834953512132</v>
+        <v>12483.73544713556</v>
       </c>
       <c r="AE28" t="n">
-        <v>7126.013690029266</v>
+        <v>4892.712446535004</v>
       </c>
       <c r="AF28" t="n">
-        <v>2687.796067475511</v>
+        <v>434.9204290703107</v>
       </c>
       <c r="AG28" t="n">
-        <v>242.9180548461296</v>
+        <v>1085.785211422564</v>
       </c>
       <c r="AH28" t="n">
-        <v>589.6207277841802</v>
+        <v>51.69623713534632</v>
       </c>
       <c r="AI28" t="n">
-        <v>30.31964434143161</v>
+        <v>5978.492113958762</v>
       </c>
       <c r="AJ28" t="n">
-        <v>3277.416795259691</v>
+        <v>486.6185058524233</v>
       </c>
       <c r="AK28" t="n">
-        <v>273.2376991875612</v>
+        <v>642.4314622979621</v>
       </c>
       <c r="AL28" t="n">
-        <v>390.0403894282503</v>
+        <v>35.8615019753472</v>
       </c>
       <c r="AM28" t="n">
-        <v>20.90400347033639</v>
+        <v>456.8145508167157</v>
       </c>
       <c r="AN28" t="n">
-        <v>279.9722965142051</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>50.87031414490542</v>
+        <v>87.28421716997715</v>
       </c>
     </row>
     <row r="29">
@@ -4059,85 +3973,82 @@
         <v>168.2590239624475</v>
       </c>
       <c r="O29" t="n">
-        <v>364.7438208263796</v>
+        <v>55003.35601840692</v>
       </c>
       <c r="P29" t="n">
-        <v>30595.66298108795</v>
+        <v>1833.44266345099</v>
       </c>
       <c r="Q29" t="n">
-        <v>1833.44266345099</v>
+        <v>9880.981034312486</v>
       </c>
       <c r="R29" t="n">
-        <v>5165.519435858087</v>
+        <v>4325.431721514121</v>
       </c>
       <c r="S29" t="n">
-        <v>2101.520766641425</v>
+        <v>417.9092200170782</v>
       </c>
       <c r="T29" t="n">
-        <v>201.5942183241006</v>
+        <v>2043.088694079372</v>
       </c>
       <c r="U29" t="n">
-        <v>868.4770901342063</v>
+        <v>99.49572772368842</v>
       </c>
       <c r="V29" t="n">
-        <v>44.03466615322137</v>
+        <v>6368.521931800157</v>
       </c>
       <c r="W29" t="n">
-        <v>2969.997856775632</v>
+        <v>517.4217601487187</v>
       </c>
       <c r="X29" t="n">
-        <v>245.6288844773219</v>
+        <v>590.5036353791239</v>
       </c>
       <c r="Y29" t="n">
-        <v>320.2319167872294</v>
+        <v>32.72438554213717</v>
       </c>
       <c r="Z29" t="n">
-        <v>17.96822244199105</v>
+        <v>385.5008180209445</v>
       </c>
       <c r="AA29" t="n">
-        <v>223.0622301397767</v>
+        <v>68.50598928755127</v>
       </c>
       <c r="AB29" t="n">
-        <v>37.62614792814376</v>
+        <v>56840.75773922587</v>
       </c>
       <c r="AC29" t="n">
-        <v>37761.99115534303</v>
+        <v>1894.693784581604</v>
       </c>
       <c r="AD29" t="n">
-        <v>1894.693784581604</v>
+        <v>11318.68729640795</v>
       </c>
       <c r="AE29" t="n">
-        <v>7204.939348862982</v>
+        <v>4760.68349795028</v>
       </c>
       <c r="AF29" t="n">
-        <v>3032.96553051136</v>
+        <v>412.5876012784978</v>
       </c>
       <c r="AG29" t="n">
-        <v>268.6233435104167</v>
+        <v>1280.397508190603</v>
       </c>
       <c r="AH29" t="n">
-        <v>789.8885983107299</v>
+        <v>65.8343714847615</v>
       </c>
       <c r="AI29" t="n">
-        <v>41.70928181372199</v>
+        <v>6041.071589995238</v>
       </c>
       <c r="AJ29" t="n">
-        <v>3822.85412882209</v>
+        <v>478.4124745569929</v>
       </c>
       <c r="AK29" t="n">
-        <v>310.3326253241386</v>
+        <v>673.0876685864171</v>
       </c>
       <c r="AL29" t="n">
-        <v>449.0923884475312</v>
+        <v>34.10416517305834</v>
       </c>
       <c r="AM29" t="n">
-        <v>23.12835218377703</v>
+        <v>482.7412404658675</v>
       </c>
       <c r="AN29" t="n">
-        <v>334.5005278072043</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>61.59793604786351</v>
+        <v>94.82762270448848</v>
       </c>
     </row>
     <row r="30">
@@ -4184,85 +4095,82 @@
         <v>156.4100160853324</v>
       </c>
       <c r="O30" t="n">
-        <v>361.3273306024781</v>
+        <v>52712.30674892772</v>
       </c>
       <c r="P30" t="n">
-        <v>34407.00325960574</v>
+        <v>1757.078132919138</v>
       </c>
       <c r="Q30" t="n">
-        <v>1757.078132919138</v>
+        <v>9068.957500646502</v>
       </c>
       <c r="R30" t="n">
-        <v>5671.418949632626</v>
+        <v>3680.47631702879</v>
       </c>
       <c r="S30" t="n">
-        <v>2102.14420710567</v>
+        <v>352.8028808399096</v>
       </c>
       <c r="T30" t="n">
-        <v>198.9731522653355</v>
+        <v>1421.800891538237</v>
       </c>
       <c r="U30" t="n">
-        <v>744.4448857733676</v>
+        <v>67.37219079606477</v>
       </c>
       <c r="V30" t="n">
-        <v>38.47172260371686</v>
+        <v>5102.277203311667</v>
       </c>
       <c r="W30" t="n">
-        <v>2846.589092879038</v>
+        <v>420.1824660738599</v>
       </c>
       <c r="X30" t="n">
-        <v>237.4448748690524</v>
+        <v>556.7204626548896</v>
       </c>
       <c r="Y30" t="n">
-        <v>359.9237429637399</v>
+        <v>36.62573306836914</v>
       </c>
       <c r="Z30" t="n">
-        <v>22.33012362954836</v>
+        <v>383.2490197646191</v>
       </c>
       <c r="AA30" t="n">
-        <v>254.7527772925096</v>
+        <v>63.42024464722073</v>
       </c>
       <c r="AB30" t="n">
-        <v>40.76433714093521</v>
+        <v>58881.70381366162</v>
       </c>
       <c r="AC30" t="n">
-        <v>34359.51796131807</v>
+        <v>1962.729017322714</v>
       </c>
       <c r="AD30" t="n">
-        <v>1962.729017322714</v>
+        <v>12586.03178812456</v>
       </c>
       <c r="AE30" t="n">
-        <v>7155.421226215285</v>
+        <v>4974.360843119399</v>
       </c>
       <c r="AF30" t="n">
-        <v>2863.521374207341</v>
+        <v>453.8074252950526</v>
       </c>
       <c r="AG30" t="n">
-        <v>259.5099086969608</v>
+        <v>1409.321481337594</v>
       </c>
       <c r="AH30" t="n">
-        <v>788.8295678919866</v>
+        <v>70.59170814810578</v>
       </c>
       <c r="AI30" t="n">
-        <v>40.38318106628363</v>
+        <v>6383.68430884028</v>
       </c>
       <c r="AJ30" t="n">
-        <v>3652.350942099327</v>
+        <v>524.3991176223496</v>
       </c>
       <c r="AK30" t="n">
-        <v>299.8930897632445</v>
+        <v>697.4812951323422</v>
       </c>
       <c r="AL30" t="n">
-        <v>401.2948043879022</v>
+        <v>42.49288532677848</v>
       </c>
       <c r="AM30" t="n">
-        <v>22.17963998429649</v>
+        <v>483.7084041699703</v>
       </c>
       <c r="AN30" t="n">
-        <v>281.1217776372349</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>50.87145202001727</v>
+        <v>92.43677848176706</v>
       </c>
     </row>
     <row r="31">
@@ -4309,85 +4217,82 @@
         <v>160.6788214262198</v>
       </c>
       <c r="O31" t="n">
-        <v>376.907238972552</v>
+        <v>56357.63937472653</v>
       </c>
       <c r="P31" t="n">
-        <v>33845.90015397377</v>
+        <v>1878.592109577896</v>
       </c>
       <c r="Q31" t="n">
-        <v>1878.592109577896</v>
+        <v>10275.14023058713</v>
       </c>
       <c r="R31" t="n">
-        <v>5718.756285181207</v>
+        <v>4190.522187233053</v>
       </c>
       <c r="S31" t="n">
-        <v>2198.419339141105</v>
+        <v>388.2495081436703</v>
       </c>
       <c r="T31" t="n">
-        <v>210.4053463585776</v>
+        <v>1347.995105177274</v>
       </c>
       <c r="U31" t="n">
-        <v>742.5547063274287</v>
+        <v>72.90968004991103</v>
       </c>
       <c r="V31" t="n">
-        <v>39.6165440167715</v>
+        <v>5538.50622437932</v>
       </c>
       <c r="W31" t="n">
-        <v>2940.974045468534</v>
+        <v>461.1535694652433</v>
       </c>
       <c r="X31" t="n">
-        <v>250.0218903753491</v>
+        <v>628.6867881778841</v>
       </c>
       <c r="Y31" t="n">
-        <v>372.4878784131988</v>
+        <v>37.82168959897366</v>
       </c>
       <c r="Z31" t="n">
-        <v>21.81706957537244</v>
+        <v>421.4567889008719</v>
       </c>
       <c r="AA31" t="n">
-        <v>254.9421160915536</v>
+        <v>62.8549738970984</v>
       </c>
       <c r="AB31" t="n">
-        <v>36.43692170647538</v>
+        <v>56045.27400554041</v>
       </c>
       <c r="AC31" t="n">
-        <v>32093.31999697061</v>
+        <v>1868.177535386068</v>
       </c>
       <c r="AD31" t="n">
-        <v>1868.177535386068</v>
+        <v>11129.16998709205</v>
       </c>
       <c r="AE31" t="n">
-        <v>6246.0893428498</v>
+        <v>4451.639530042728</v>
       </c>
       <c r="AF31" t="n">
-        <v>2484.235246283812</v>
+        <v>416.6612641472996</v>
       </c>
       <c r="AG31" t="n">
-        <v>234.0808242408991</v>
+        <v>1395.598403015984</v>
       </c>
       <c r="AH31" t="n">
-        <v>725.7950237209755</v>
+        <v>71.30515103208441</v>
       </c>
       <c r="AI31" t="n">
-        <v>38.63856255880842</v>
+        <v>5847.248947259452</v>
       </c>
       <c r="AJ31" t="n">
-        <v>3210.030270004788</v>
+        <v>487.964527734145</v>
       </c>
       <c r="AK31" t="n">
-        <v>272.7193867997075</v>
+        <v>682.2822334398775</v>
       </c>
       <c r="AL31" t="n">
-        <v>390.6235813351677</v>
+        <v>42.39445422705086</v>
       </c>
       <c r="AM31" t="n">
-        <v>21.4527278579002</v>
+        <v>458.7284378337301</v>
       </c>
       <c r="AN31" t="n">
-        <v>267.9981755380771</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>50.32851600460201</v>
+        <v>94.92936601731463</v>
       </c>
     </row>
     <row r="32">
@@ -4434,85 +4339,82 @@
         <v>153.4418751876581</v>
       </c>
       <c r="O32" t="n">
-        <v>391.3745339696683</v>
+        <v>59386.95886711637</v>
       </c>
       <c r="P32" t="n">
-        <v>35022.02971513831</v>
+        <v>1979.56400054672</v>
       </c>
       <c r="Q32" t="n">
-        <v>1979.56400054672</v>
+        <v>9879.474092466391</v>
       </c>
       <c r="R32" t="n">
-        <v>5425.077382334722</v>
+        <v>4525.36332960118</v>
       </c>
       <c r="S32" t="n">
-        <v>2155.284592807016</v>
+        <v>387.5570072350487</v>
       </c>
       <c r="T32" t="n">
-        <v>194.50662843659</v>
+        <v>1582.370988106583</v>
       </c>
       <c r="U32" t="n">
-        <v>734.9820093850501</v>
+        <v>77.15668236237778</v>
       </c>
       <c r="V32" t="n">
-        <v>37.97042179530794</v>
+        <v>6107.728746087833</v>
       </c>
       <c r="W32" t="n">
-        <v>2890.266602192066</v>
+        <v>464.7041891767984</v>
       </c>
       <c r="X32" t="n">
-        <v>232.4770502318979</v>
+        <v>597.8445152120225</v>
       </c>
       <c r="Y32" t="n">
-        <v>341.2636584124396</v>
+        <v>35.74139437961512</v>
       </c>
       <c r="Z32" t="n">
-        <v>18.47184715969564</v>
+        <v>411.5432978410874</v>
       </c>
       <c r="AA32" t="n">
-        <v>239.0816386061393</v>
+        <v>76.82763430219708</v>
       </c>
       <c r="AB32" t="n">
-        <v>37.22234659461008</v>
+        <v>61227.81286107008</v>
       </c>
       <c r="AC32" t="n">
-        <v>37859.75138615893</v>
+        <v>2040.929207955929</v>
       </c>
       <c r="AD32" t="n">
-        <v>2040.929207955929</v>
+        <v>12375.0669040373</v>
       </c>
       <c r="AE32" t="n">
-        <v>7438.020447194281</v>
+        <v>4827.965258872621</v>
       </c>
       <c r="AF32" t="n">
-        <v>2888.611432049489</v>
+        <v>439.3320052470088</v>
       </c>
       <c r="AG32" t="n">
-        <v>265.8454671328437</v>
+        <v>1256.031462631447</v>
       </c>
       <c r="AH32" t="n">
-        <v>716.7157868486928</v>
+        <v>73.00713639826772</v>
       </c>
       <c r="AI32" t="n">
-        <v>42.91185989487005</v>
+        <v>6084.000555645769</v>
       </c>
       <c r="AJ32" t="n">
-        <v>3605.327218898181</v>
+        <v>512.3334641905874</v>
       </c>
       <c r="AK32" t="n">
-        <v>308.7573270277138</v>
+        <v>661.4781028321964</v>
       </c>
       <c r="AL32" t="n">
-        <v>420.0718329327876</v>
+        <v>32.38062086384571</v>
       </c>
       <c r="AM32" t="n">
-        <v>21.00917386594572</v>
+        <v>476.3021074520558</v>
       </c>
       <c r="AN32" t="n">
-        <v>305.7914697288082</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>48.28047883797881</v>
+        <v>80.31416804523303</v>
       </c>
     </row>
     <row r="33">
@@ -4559,85 +4461,82 @@
         <v>161.4619258756234</v>
       </c>
       <c r="O33" t="n">
-        <v>369.4996038500673</v>
+        <v>54042.6003137861</v>
       </c>
       <c r="P33" t="n">
-        <v>32877.08144409786</v>
+        <v>1801.423025708647</v>
       </c>
       <c r="Q33" t="n">
-        <v>1801.423025708647</v>
+        <v>9396.220881876852</v>
       </c>
       <c r="R33" t="n">
-        <v>5248.075321095168</v>
+        <v>3710.30839757299</v>
       </c>
       <c r="S33" t="n">
-        <v>2078.534385999757</v>
+        <v>360.4072030423615</v>
       </c>
       <c r="T33" t="n">
-        <v>206.9039320688772</v>
+        <v>1390.162943653256</v>
       </c>
       <c r="U33" t="n">
-        <v>759.3558827170873</v>
+        <v>72.05585108805047</v>
       </c>
       <c r="V33" t="n">
-        <v>40.41165464828379</v>
+        <v>5100.476963580717</v>
       </c>
       <c r="W33" t="n">
-        <v>2837.890268716844</v>
+        <v>432.4575912137315</v>
       </c>
       <c r="X33" t="n">
-        <v>247.3155867171609</v>
+        <v>598.7562037298123</v>
       </c>
       <c r="Y33" t="n">
-        <v>349.328063247305</v>
+        <v>39.32587107923148</v>
       </c>
       <c r="Z33" t="n">
-        <v>21.56135289016235</v>
+        <v>398.4183422002576</v>
       </c>
       <c r="AA33" t="n">
-        <v>241.8280740259744</v>
+        <v>61.67017451012212</v>
       </c>
       <c r="AB33" t="n">
-        <v>35.76758396582386</v>
+        <v>60345.09149254052</v>
       </c>
       <c r="AC33" t="n">
-        <v>41860.71368285549</v>
+        <v>2011.498037646824</v>
       </c>
       <c r="AD33" t="n">
-        <v>2011.498037646824</v>
+        <v>12218.68312207283</v>
       </c>
       <c r="AE33" t="n">
-        <v>8233.744193956263</v>
+        <v>4884.047087173598</v>
       </c>
       <c r="AF33" t="n">
-        <v>3268.261563109838</v>
+        <v>446.0957225796159</v>
       </c>
       <c r="AG33" t="n">
-        <v>294.5860240799551</v>
+        <v>1289.724359558787</v>
       </c>
       <c r="AH33" t="n">
-        <v>836.7197192580716</v>
+        <v>68.05125459637654</v>
       </c>
       <c r="AI33" t="n">
-        <v>44.90732004923963</v>
+        <v>6173.774791794208</v>
       </c>
       <c r="AJ33" t="n">
-        <v>4104.981282367909</v>
+        <v>514.1378757665076</v>
       </c>
       <c r="AK33" t="n">
-        <v>339.4933441291947</v>
+        <v>635.3380925928554</v>
       </c>
       <c r="AL33" t="n">
-        <v>453.98155948636</v>
+        <v>33.46125863197623</v>
       </c>
       <c r="AM33" t="n">
-        <v>24.3034712567068</v>
+        <v>489.4224057021069</v>
       </c>
       <c r="AN33" t="n">
-        <v>341.3808591667154</v>
-      </c>
-      <c r="AO33" t="n">
-        <v>59.56132696422085</v>
+        <v>87.76832712832052</v>
       </c>
     </row>
     <row r="34">
@@ -4684,85 +4583,82 @@
         <v>160.0225647591811</v>
       </c>
       <c r="O34" t="n">
-        <v>371.1826517735676</v>
+        <v>53485.69059079193</v>
       </c>
       <c r="P34" t="n">
-        <v>36592.98971409358</v>
+        <v>1782.852063266845</v>
       </c>
       <c r="Q34" t="n">
-        <v>1782.852063266845</v>
+        <v>9408.96019397031</v>
       </c>
       <c r="R34" t="n">
-        <v>5946.600028744276</v>
+        <v>3726.815416148128</v>
       </c>
       <c r="S34" t="n">
-        <v>2201.894521215084</v>
+        <v>352.39145129004</v>
       </c>
       <c r="T34" t="n">
-        <v>216.2741603317417</v>
+        <v>1381.828729770136</v>
       </c>
       <c r="U34" t="n">
-        <v>836.7657067285893</v>
+        <v>70.09324472040507</v>
       </c>
       <c r="V34" t="n">
-        <v>40.80908157472282</v>
+        <v>5108.636473307124</v>
       </c>
       <c r="W34" t="n">
-        <v>3038.660227943673</v>
+        <v>422.4827769669517</v>
       </c>
       <c r="X34" t="n">
-        <v>257.0832419064645</v>
+        <v>562.9663878678266</v>
       </c>
       <c r="Y34" t="n">
-        <v>376.1188783273974</v>
+        <v>32.26762291042078</v>
       </c>
       <c r="Z34" t="n">
-        <v>21.86167041795847</v>
+        <v>386.610460641113</v>
       </c>
       <c r="AA34" t="n">
-        <v>268.9901787876569</v>
+        <v>65.68083486217385</v>
       </c>
       <c r="AB34" t="n">
-        <v>41.75805821098063</v>
+        <v>57970.79876870297</v>
       </c>
       <c r="AC34" t="n">
-        <v>34577.03690480092</v>
+        <v>1932.354480209591</v>
       </c>
       <c r="AD34" t="n">
-        <v>1932.354480209591</v>
+        <v>11247.27435025017</v>
       </c>
       <c r="AE34" t="n">
-        <v>6437.926456441094</v>
+        <v>4881.040378201777</v>
       </c>
       <c r="AF34" t="n">
-        <v>2752.242457846383</v>
+        <v>422.0323162504325</v>
       </c>
       <c r="AG34" t="n">
-        <v>244.6743529344445</v>
+        <v>1330.139228967668</v>
       </c>
       <c r="AH34" t="n">
-        <v>804.9491807531558</v>
+        <v>64.96309887444879</v>
       </c>
       <c r="AI34" t="n">
-        <v>39.02885480561999</v>
+        <v>6211.186905901998</v>
       </c>
       <c r="AJ34" t="n">
-        <v>3557.191638599538</v>
+        <v>487.0066033673062</v>
       </c>
       <c r="AK34" t="n">
-        <v>283.7032077400644</v>
+        <v>660.9235601349297</v>
       </c>
       <c r="AL34" t="n">
-        <v>390.9276908591484</v>
+        <v>38.09733190478074</v>
       </c>
       <c r="AM34" t="n">
-        <v>20.36830796276295</v>
+        <v>468.1247815238315</v>
       </c>
       <c r="AN34" t="n">
-        <v>279.8697081414958</v>
-      </c>
-      <c r="AO34" t="n">
-        <v>50.41185103869826</v>
+        <v>92.67682497624109</v>
       </c>
     </row>
     <row r="35">
@@ -4809,85 +4705,82 @@
         <v>160.3773099961699</v>
       </c>
       <c r="O35" t="n">
-        <v>382.5325149163169</v>
+        <v>53919.64806269945</v>
       </c>
       <c r="P35" t="n">
-        <v>36534.85196934224</v>
+        <v>1797.327304210126</v>
       </c>
       <c r="Q35" t="n">
-        <v>1797.327304210126</v>
+        <v>8935.180532512277</v>
       </c>
       <c r="R35" t="n">
-        <v>5698.104173168487</v>
+        <v>3630.283749540765</v>
       </c>
       <c r="S35" t="n">
-        <v>2257.187006687748</v>
+        <v>317.0275794372512</v>
       </c>
       <c r="T35" t="n">
-        <v>207.5781166498603</v>
+        <v>1125.997158408938</v>
       </c>
       <c r="U35" t="n">
-        <v>714.1453307476887</v>
+        <v>50.64212595624563</v>
       </c>
       <c r="V35" t="n">
-        <v>34.16953036567126</v>
+        <v>4756.29406669623</v>
       </c>
       <c r="W35" t="n">
-        <v>2971.332337435436</v>
+        <v>367.6773084835723</v>
       </c>
       <c r="X35" t="n">
-        <v>241.7476470155316</v>
+        <v>533.059348018641</v>
       </c>
       <c r="Y35" t="n">
-        <v>360.9264666290011</v>
+        <v>30.01332105999647</v>
       </c>
       <c r="Z35" t="n">
-        <v>21.82011120568314</v>
+        <v>362.0185330852512</v>
       </c>
       <c r="AA35" t="n">
-        <v>253.9634776333159</v>
+        <v>59.2624454461998</v>
       </c>
       <c r="AB35" t="n">
-        <v>38.55417334859111</v>
+        <v>56936.18224995058</v>
       </c>
       <c r="AC35" t="n">
-        <v>33631.62042573176</v>
+        <v>1897.861876642503</v>
       </c>
       <c r="AD35" t="n">
-        <v>1897.861876642503</v>
+        <v>10700.5376427744</v>
       </c>
       <c r="AE35" t="n">
-        <v>6155.305317117542</v>
+        <v>4425.641429855961</v>
       </c>
       <c r="AF35" t="n">
-        <v>2433.526401589107</v>
+        <v>393.1854803338276</v>
       </c>
       <c r="AG35" t="n">
-        <v>219.5199130699853</v>
+        <v>1314.462069714355</v>
       </c>
       <c r="AH35" t="n">
-        <v>670.8329240384003</v>
+        <v>63.5594739968444</v>
       </c>
       <c r="AI35" t="n">
-        <v>36.67058007696271</v>
+        <v>5740.103255188727</v>
       </c>
       <c r="AJ35" t="n">
-        <v>3104.359325627507</v>
+        <v>456.7375272212195</v>
       </c>
       <c r="AK35" t="n">
-        <v>256.1904931469481</v>
+        <v>658.5577319264169</v>
       </c>
       <c r="AL35" t="n">
-        <v>381.5766310540124</v>
+        <v>33.38223491350461</v>
       </c>
       <c r="AM35" t="n">
-        <v>20.27454049359286</v>
+        <v>449.6230736608906</v>
       </c>
       <c r="AN35" t="n">
-        <v>267.9275652325856</v>
-      </c>
-      <c r="AO35" t="n">
-        <v>47.42271265871432</v>
+        <v>83.72243711465489</v>
       </c>
     </row>
     <row r="36">
@@ -4934,85 +4827,82 @@
         <v>150.9343134087352</v>
       </c>
       <c r="O36" t="n">
-        <v>369.5091941265341</v>
+        <v>55085.36331319186</v>
       </c>
       <c r="P36" t="n">
-        <v>37964.86914974185</v>
+        <v>1836.174414548549</v>
       </c>
       <c r="Q36" t="n">
-        <v>1836.174414548549</v>
+        <v>9507.75742299326</v>
       </c>
       <c r="R36" t="n">
-        <v>6347.028473133652</v>
+        <v>4274.785232144042</v>
       </c>
       <c r="S36" t="n">
-        <v>2569.146165792774</v>
+        <v>388.1754673397297</v>
       </c>
       <c r="T36" t="n">
-        <v>232.6978031843085</v>
+        <v>1659.918976137749</v>
       </c>
       <c r="U36" t="n">
-        <v>919.5056589188789</v>
+        <v>75.50500239221844</v>
       </c>
       <c r="V36" t="n">
-        <v>45.1747505646472</v>
+        <v>5934.698655702619</v>
       </c>
       <c r="W36" t="n">
-        <v>3488.651824711652</v>
+        <v>463.6935444912471</v>
       </c>
       <c r="X36" t="n">
-        <v>277.8725537489557</v>
+        <v>560.2359825945521</v>
       </c>
       <c r="Y36" t="n">
-        <v>374.3865573997044</v>
+        <v>33.47088379679023</v>
       </c>
       <c r="Z36" t="n">
-        <v>21.20021421664363</v>
+        <v>398.6346706904911</v>
       </c>
       <c r="AA36" t="n">
-        <v>272.5089230550881</v>
+        <v>68.45750203282785</v>
       </c>
       <c r="AB36" t="n">
-        <v>41.83955398392622</v>
+        <v>58323.12309815206</v>
       </c>
       <c r="AC36" t="n">
-        <v>31738.3121430133</v>
+        <v>1944.10320151443</v>
       </c>
       <c r="AD36" t="n">
-        <v>1944.10320151443</v>
+        <v>11308.49868391748</v>
       </c>
       <c r="AE36" t="n">
-        <v>6083.641595143886</v>
+        <v>5014.752455829288</v>
       </c>
       <c r="AF36" t="n">
-        <v>2624.873484590327</v>
+        <v>426.224355039111</v>
       </c>
       <c r="AG36" t="n">
-        <v>225.5655853053653</v>
+        <v>1152.883492553706</v>
       </c>
       <c r="AH36" t="n">
-        <v>565.8046113350473</v>
+        <v>78.54166970543911</v>
       </c>
       <c r="AI36" t="n">
-        <v>35.67709040962696</v>
+        <v>6167.632069059287</v>
       </c>
       <c r="AJ36" t="n">
-        <v>3190.678095925374</v>
+        <v>504.7659347955163</v>
       </c>
       <c r="AK36" t="n">
-        <v>261.2426757149923</v>
+        <v>684.3340514732802</v>
       </c>
       <c r="AL36" t="n">
-        <v>366.44284773354</v>
+        <v>40.43262425220416</v>
       </c>
       <c r="AM36" t="n">
-        <v>19.53591818235453</v>
+        <v>467.6803796314775</v>
       </c>
       <c r="AN36" t="n">
-        <v>261.9420273170755</v>
-      </c>
-      <c r="AO36" t="n">
-        <v>47.73250474169284</v>
+        <v>93.82332980864354</v>
       </c>
     </row>
     <row r="37">
@@ -5059,85 +4949,82 @@
         <v>149.6715155628083</v>
       </c>
       <c r="O37" t="n">
-        <v>385.2632323592113</v>
+        <v>57302.70153527494</v>
       </c>
       <c r="P37" t="n">
-        <v>35027.66801245447</v>
+        <v>1910.092940670664</v>
       </c>
       <c r="Q37" t="n">
-        <v>1910.092940670664</v>
+        <v>9777.453826814995</v>
       </c>
       <c r="R37" t="n">
-        <v>5592.740264943355</v>
+        <v>4199.79427422651</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.871774939663</v>
+        <v>375.1811034245798</v>
       </c>
       <c r="T37" t="n">
-        <v>205.5408646833465</v>
+        <v>1585.997348188442</v>
       </c>
       <c r="U37" t="n">
-        <v>794.672573775882</v>
+        <v>77.07131115672391</v>
       </c>
       <c r="V37" t="n">
-        <v>38.23330787437008</v>
+        <v>5785.79164097181</v>
       </c>
       <c r="W37" t="n">
-        <v>3059.544348715545</v>
+        <v>452.2505264613013</v>
       </c>
       <c r="X37" t="n">
-        <v>243.7741725577165</v>
+        <v>614.6895187837596</v>
       </c>
       <c r="Y37" t="n">
-        <v>357.6711472486532</v>
+        <v>42.52454314093295</v>
       </c>
       <c r="Z37" t="n">
-        <v>20.13255960592405</v>
+        <v>417.8012602838675</v>
       </c>
       <c r="AA37" t="n">
-        <v>254.8081976333983</v>
+        <v>63.79396348028149</v>
       </c>
       <c r="AB37" t="n">
-        <v>34.25901013951687</v>
+        <v>57141.53310446827</v>
       </c>
       <c r="AC37" t="n">
-        <v>34209.90542512682</v>
+        <v>1904.716260032822</v>
       </c>
       <c r="AD37" t="n">
-        <v>1904.716260032822</v>
+        <v>11197.14328699889</v>
       </c>
       <c r="AE37" t="n">
-        <v>6557.197882218333</v>
+        <v>4438.229202380171</v>
       </c>
       <c r="AF37" t="n">
-        <v>2588.076088996488</v>
+        <v>403.555700189152</v>
       </c>
       <c r="AG37" t="n">
-        <v>239.5738532707658</v>
+        <v>1232.418038442418</v>
       </c>
       <c r="AH37" t="n">
-        <v>770.8890505775325</v>
+        <v>60.30668217217925</v>
       </c>
       <c r="AI37" t="n">
-        <v>40.38984997659288</v>
+        <v>5670.64177584269</v>
       </c>
       <c r="AJ37" t="n">
-        <v>3358.96513957402</v>
+        <v>463.8754393903441</v>
       </c>
       <c r="AK37" t="n">
-        <v>279.9637032473586</v>
+        <v>660.8099049970584</v>
       </c>
       <c r="AL37" t="n">
-        <v>396.0291385995716</v>
+        <v>30.50489862009681</v>
       </c>
       <c r="AM37" t="n">
-        <v>19.80286659681801</v>
+        <v>452.1010778369133</v>
       </c>
       <c r="AN37" t="n">
-        <v>273.7893447131618</v>
-      </c>
-      <c r="AO37" t="n">
-        <v>46.95902134817362</v>
+        <v>81.62510739322329</v>
       </c>
     </row>
     <row r="38">
@@ -5184,85 +5071,82 @@
         <v>144.4370072415624</v>
       </c>
       <c r="O38" t="n">
-        <v>347.8539699742513</v>
+        <v>53105.74907491144</v>
       </c>
       <c r="P38" t="n">
-        <v>34029.83415029916</v>
+        <v>1770.194995753458</v>
       </c>
       <c r="Q38" t="n">
-        <v>1770.194995753458</v>
+        <v>9355.402432691459</v>
       </c>
       <c r="R38" t="n">
-        <v>5631.094217629918</v>
+        <v>3870.572015100543</v>
       </c>
       <c r="S38" t="n">
-        <v>2157.576089482808</v>
+        <v>356.683884951035</v>
       </c>
       <c r="T38" t="n">
-        <v>203.5069772152959</v>
+        <v>1382.910999633366</v>
       </c>
       <c r="U38" t="n">
-        <v>829.736163512824</v>
+        <v>70.90958224955649</v>
       </c>
       <c r="V38" t="n">
-        <v>40.88932977259316</v>
+        <v>5253.499573937139</v>
       </c>
       <c r="W38" t="n">
-        <v>2987.312252995632</v>
+        <v>427.5953873183362</v>
       </c>
       <c r="X38" t="n">
-        <v>244.396306987889</v>
+        <v>535.5505787036443</v>
       </c>
       <c r="Y38" t="n">
-        <v>330.6022573060216</v>
+        <v>35.33563218387557</v>
       </c>
       <c r="Z38" t="n">
-        <v>21.3293561224541</v>
+        <v>369.5983547352366</v>
       </c>
       <c r="AA38" t="n">
-        <v>237.1277278750344</v>
+        <v>66.44814773522054</v>
       </c>
       <c r="AB38" t="n">
-        <v>38.21754968959264</v>
+        <v>54782.3839604438</v>
       </c>
       <c r="AC38" t="n">
-        <v>30337.26540522201</v>
+        <v>1826.084106796963</v>
       </c>
       <c r="AD38" t="n">
-        <v>1826.084106796963</v>
+        <v>10878.13830124377</v>
       </c>
       <c r="AE38" t="n">
-        <v>5852.174193093268</v>
+        <v>4618.906681314735</v>
       </c>
       <c r="AF38" t="n">
-        <v>2355.812523619146</v>
+        <v>434.4293610394558</v>
       </c>
       <c r="AG38" t="n">
-        <v>215.8902513987273</v>
+        <v>1350.817003414314</v>
       </c>
       <c r="AH38" t="n">
-        <v>587.6276095413759</v>
+        <v>74.27803386629492</v>
       </c>
       <c r="AI38" t="n">
-        <v>33.12443307511936</v>
+        <v>5969.72534017908</v>
       </c>
       <c r="AJ38" t="n">
-        <v>2943.440133160522</v>
+        <v>508.7183358244714</v>
       </c>
       <c r="AK38" t="n">
-        <v>249.0146844738467</v>
+        <v>631.4947103942245</v>
       </c>
       <c r="AL38" t="n">
-        <v>340.9747945230661</v>
+        <v>35.4930086480264</v>
       </c>
       <c r="AM38" t="n">
-        <v>19.87469512716545</v>
+        <v>418.7851839725712</v>
       </c>
       <c r="AN38" t="n">
-        <v>242.7040062543095</v>
-      </c>
-      <c r="AO38" t="n">
-        <v>43.48991682525516</v>
+        <v>83.49149043087752</v>
       </c>
     </row>
     <row r="39">
@@ -5309,85 +5193,82 @@
         <v>157.7284793274855</v>
       </c>
       <c r="O39" t="n">
-        <v>371.5887492057918</v>
+        <v>51693.04849214978</v>
       </c>
       <c r="P39" t="n">
-        <v>34005.82022832207</v>
+        <v>1723.097982866452</v>
       </c>
       <c r="Q39" t="n">
-        <v>1723.097982866452</v>
+        <v>8618.663393662846</v>
       </c>
       <c r="R39" t="n">
-        <v>5394.740725739436</v>
+        <v>3181.645582762942</v>
       </c>
       <c r="S39" t="n">
-        <v>1933.128877024079</v>
+        <v>299.553001419365</v>
       </c>
       <c r="T39" t="n">
-        <v>183.3200719647559</v>
+        <v>1069.960213424478</v>
       </c>
       <c r="U39" t="n">
-        <v>647.3747553958448</v>
+        <v>54.35411518288848</v>
       </c>
       <c r="V39" t="n">
-        <v>31.99282940409131</v>
+        <v>4251.605742650453</v>
       </c>
       <c r="W39" t="n">
-        <v>2580.503632419923</v>
+        <v>353.9163491223699</v>
       </c>
       <c r="X39" t="n">
-        <v>215.3129013688472</v>
+        <v>528.6683760273685</v>
       </c>
       <c r="Y39" t="n">
-        <v>341.7755931325533</v>
+        <v>38.02238551450597</v>
       </c>
       <c r="Z39" t="n">
-        <v>22.70712249730791</v>
+        <v>374.8633365980346</v>
       </c>
       <c r="AA39" t="n">
-        <v>244.8389034741414</v>
+        <v>55.82434916429884</v>
       </c>
       <c r="AB39" t="n">
-        <v>36.36416043258694</v>
+        <v>58696.26356329404</v>
       </c>
       <c r="AC39" t="n">
-        <v>37319.17352285612</v>
+        <v>1956.53524592934</v>
       </c>
       <c r="AD39" t="n">
-        <v>1956.53524592934</v>
+        <v>11195.81602740327</v>
       </c>
       <c r="AE39" t="n">
-        <v>6989.531781053768</v>
+        <v>4474.220318319691</v>
       </c>
       <c r="AF39" t="n">
-        <v>2601.399373365437</v>
+        <v>404.6544716252128</v>
       </c>
       <c r="AG39" t="n">
-        <v>239.9952072149568</v>
+        <v>1312.820657803021</v>
       </c>
       <c r="AH39" t="n">
-        <v>724.6816722105682</v>
+        <v>63.56866763242839</v>
       </c>
       <c r="AI39" t="n">
-        <v>35.96694153484394</v>
+        <v>5787.043283815019</v>
       </c>
       <c r="AJ39" t="n">
-        <v>3326.081045576005</v>
+        <v>468.2323907906705</v>
       </c>
       <c r="AK39" t="n">
-        <v>275.9621487498007</v>
+        <v>663.9559259724346</v>
       </c>
       <c r="AL39" t="n">
-        <v>425.2593156766071</v>
+        <v>43.36915093093884</v>
       </c>
       <c r="AM39" t="n">
-        <v>20.42965107881206</v>
+        <v>450.5236339953568</v>
       </c>
       <c r="AN39" t="n">
-        <v>303.6663286137352</v>
-      </c>
-      <c r="AO39" t="n">
-        <v>52.02190906545682</v>
+        <v>78.38096341879907</v>
       </c>
     </row>
   </sheetData>
